--- a/Mapping to LSRs/Mental Health Ontology mapping to LSRs.xlsx
+++ b/Mapping to LSRs/Mental Health Ontology mapping to LSRs.xlsx
@@ -17,17 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,9 +46,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -427,77 +422,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Extraction sheet name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Data file (doi)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Informal label for repository</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Extraction sheet dimension</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Variable to extract</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Understandable label for database</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Class ID</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Class  label</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Class definition</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Parent class</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Ontology spreadsheet</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>LSR no.</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Organised under</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>COMBO or not?</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>COMBO</t>
         </is>
@@ -509,6 +504,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>adverse event</t>
@@ -581,6 +577,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>post-intervention</t>
@@ -653,6 +650,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -720,6 +719,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -787,6 +788,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
           <t>Population</t>
@@ -854,6 +857,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
           <t>Population</t>
@@ -921,6 +926,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
           <t>Population</t>
@@ -988,6 +995,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -1055,6 +1064,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -1122,6 +1133,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -1189,6 +1202,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -1256,6 +1271,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -1323,6 +1340,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -1390,6 +1409,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -1457,6 +1478,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
           <t>Population</t>
@@ -1524,6 +1547,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
           <t>Population</t>
@@ -1591,6 +1616,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
           <t>Population</t>
@@ -1658,6 +1685,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -1725,6 +1754,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -1792,6 +1823,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -1859,6 +1892,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -1926,6 +1961,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -1993,6 +2030,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
           <t>Population</t>
@@ -2048,6 +2087,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2055,6 +2095,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -2110,6 +2152,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2117,6 +2160,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
           <t>Population</t>
@@ -2172,6 +2217,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2179,6 +2225,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -2234,6 +2282,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2241,6 +2290,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -2296,6 +2347,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2303,6 +2355,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
           <t>Population</t>
@@ -2358,6 +2412,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2365,6 +2420,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -2420,6 +2477,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2427,6 +2485,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -2482,6 +2542,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2489,6 +2550,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -2544,6 +2607,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2551,6 +2615,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>constipation</t>
@@ -2623,6 +2688,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>dizziness</t>
@@ -2695,6 +2761,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -2750,6 +2818,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2757,6 +2826,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -2812,6 +2883,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2819,6 +2891,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -2874,6 +2948,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2881,6 +2956,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>dry mouth</t>
@@ -2953,6 +3029,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -3020,6 +3098,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -3087,6 +3167,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -3154,6 +3236,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>headache</t>
@@ -3226,6 +3309,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -3281,6 +3366,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3288,6 +3374,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -3343,6 +3431,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3350,6 +3439,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -3405,6 +3496,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3412,6 +3504,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>insomnia</t>
@@ -3484,6 +3577,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -3539,6 +3634,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3546,6 +3642,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -3601,6 +3699,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3608,6 +3707,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -3663,6 +3764,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3670,6 +3772,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>mean age</t>
@@ -3730,6 +3833,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3737,6 +3841,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>baseline</t>
@@ -3809,6 +3914,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>baseline</t>
@@ -3881,6 +3987,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>baseline</t>
@@ -3953,6 +4060,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>baseline</t>
@@ -4025,6 +4133,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>baseline</t>
@@ -4097,6 +4206,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>baseline</t>
@@ -4169,6 +4279,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>baseline</t>
@@ -4241,6 +4352,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>baseline</t>
@@ -4313,6 +4425,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>baseline</t>
@@ -4385,6 +4498,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>post-intervention</t>
@@ -4457,6 +4571,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>post-intervention</t>
@@ -4529,6 +4644,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>post-intervention</t>
@@ -4601,6 +4717,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>post-intervention</t>
@@ -4673,6 +4790,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
           <t>post-intervention</t>
@@ -4745,6 +4863,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>post-intervention</t>
@@ -4817,6 +4936,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>post-intervention</t>
@@ -4889,6 +5009,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>post-intervention</t>
@@ -4961,6 +5082,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>post-intervention</t>
@@ -5033,6 +5155,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>post-intervention</t>
@@ -5105,6 +5228,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>post-intervention</t>
@@ -5177,6 +5301,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>post-intervention</t>
@@ -5249,6 +5374,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -5304,6 +5431,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5311,6 +5439,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -5366,6 +5496,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5373,6 +5504,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>nausea</t>
@@ -5445,6 +5577,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>number of females (sex)</t>
@@ -5505,6 +5638,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5512,6 +5646,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
           <t>Population</t>
@@ -5567,6 +5703,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5574,6 +5711,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -5629,6 +5768,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5636,6 +5776,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
           <t>Population</t>
@@ -5691,6 +5833,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5698,6 +5841,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -5753,6 +5898,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5760,6 +5906,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
           <t>Population</t>
@@ -5815,6 +5963,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5822,6 +5971,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -5877,6 +6028,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5884,6 +6036,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
           <t>Methods</t>
@@ -5939,6 +6093,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5946,6 +6101,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -6013,6 +6170,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -6080,6 +6239,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
           <t>proportion of females (sex)</t>
@@ -6140,6 +6300,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6147,6 +6308,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>publication year</t>
@@ -6207,6 +6369,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6214,6 +6377,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
           <t>Population</t>
@@ -6281,6 +6446,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -6348,6 +6515,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -6415,6 +6584,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -6482,6 +6653,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -6549,6 +6722,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -6616,6 +6791,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
           <t>Population</t>
@@ -6683,6 +6860,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
           <t>Population</t>
@@ -6750,6 +6929,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -6817,6 +6998,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -6884,6 +7067,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -6939,6 +7124,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6946,6 +7132,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -7001,6 +7189,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7008,6 +7197,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -7063,6 +7254,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7070,6 +7262,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
           <t>Population</t>
@@ -7125,6 +7319,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7132,6 +7327,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -7187,6 +7384,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7194,6 +7392,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
           <t>Population</t>
@@ -7249,6 +7449,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7256,6 +7457,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -7311,6 +7514,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7318,6 +7522,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
           <t>Population</t>
@@ -7373,6 +7579,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7380,6 +7587,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -7435,6 +7644,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7442,6 +7652,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
           <t>Study identification</t>
@@ -7497,6 +7709,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7504,6 +7717,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
           <t>vomiting</t>
@@ -7581,6 +7795,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
           <t>arm_name</t>
@@ -7631,6 +7847,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7643,6 +7860,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
           <t>study_name</t>
@@ -7693,6 +7912,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7705,6 +7925,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
           <t>study_design</t>
@@ -7755,6 +7977,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7767,6 +7990,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
           <t>drug_name</t>
@@ -7817,6 +8042,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7829,6 +8055,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
           <t>dose</t>
@@ -7879,6 +8107,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7891,6 +8120,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
           <t>dose</t>
@@ -7941,6 +8172,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7958,6 +8190,7 @@
           <t>mental health status</t>
         </is>
       </c>
+      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
           <t>population</t>
@@ -8008,6 +8241,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8025,6 +8259,7 @@
           <t>severity of condition</t>
         </is>
       </c>
+      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
           <t>state</t>
@@ -8075,6 +8310,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -8087,6 +8323,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
           <t>sample_n</t>
@@ -8137,6 +8375,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8149,6 +8388,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
           <t>randomized_n</t>
@@ -8199,6 +8440,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8216,6 +8458,7 @@
           <t>mean age</t>
         </is>
       </c>
+      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
           <t>age_mean</t>
@@ -8266,6 +8509,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8283,6 +8527,7 @@
           <t>number of females (sex)</t>
         </is>
       </c>
+      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
           <t>female_n</t>
@@ -8333,6 +8578,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8345,6 +8591,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
           <t>duration_weeks</t>
@@ -8395,6 +8643,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8407,6 +8656,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
           <t>response_e</t>
@@ -8474,6 +8725,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
           <t>response_e</t>
@@ -8524,6 +8777,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8541,6 +8795,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
           <t>response_e</t>
@@ -8608,6 +8863,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
           <t>response_n</t>
@@ -8675,6 +8932,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
           <t>response_n</t>
@@ -8725,6 +8984,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -8742,6 +9002,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
           <t>response_n</t>
@@ -8809,6 +9070,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
           <t>relapse_e</t>
@@ -8876,6 +9139,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
           <t>relapse_e</t>
@@ -8926,6 +9191,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -8943,6 +9209,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
           <t>relapse_e</t>
@@ -9010,6 +9277,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
           <t>relapse_n</t>
@@ -9077,6 +9346,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
           <t>relapse_n</t>
@@ -9127,6 +9398,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9144,6 +9416,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
           <t>relapse_n</t>
@@ -9211,6 +9484,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
           <t>dropout_any_e</t>
@@ -9262,6 +9537,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -9274,6 +9550,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
           <t>dropout_any_n</t>
@@ -9324,6 +9602,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9336,6 +9615,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
           <t>dropout_ae_e</t>
@@ -9386,6 +9667,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -9398,6 +9680,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
           <t>dropout_ae_n</t>
@@ -9449,6 +9733,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -9466,6 +9751,7 @@
           <t>death</t>
         </is>
       </c>
+      <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
           <t>death_e</t>
@@ -9533,6 +9819,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
           <t>death_e</t>
@@ -9583,6 +9871,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -9600,6 +9889,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
           <t>death_e</t>
@@ -9672,6 +9962,7 @@
           <t>death</t>
         </is>
       </c>
+      <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
           <t>death_n</t>
@@ -9739,6 +10030,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
           <t>death_n</t>
@@ -9789,6 +10082,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -9806,6 +10100,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
           <t>death_n</t>
@@ -9878,6 +10173,7 @@
           <t>serious adverse event</t>
         </is>
       </c>
+      <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
           <t>serious_e</t>
@@ -9945,6 +10241,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
           <t>serious_e</t>
@@ -9995,6 +10293,7 @@
           <t>No COMBO</t>
         </is>
       </c>
+      <c r="O144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -10012,6 +10311,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
           <t>serious_e</t>
@@ -10084,6 +10384,7 @@
           <t>serious adverse event</t>
         </is>
       </c>
+      <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
           <t>serious_n</t>
@@ -10151,6 +10452,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
           <t>serious_n</t>
@@ -10201,6 +10504,7 @@
           <t>No COMBO</t>
         </is>
       </c>
+      <c r="O147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -10218,6 +10522,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
           <t>serious_n</t>
@@ -10285,6 +10590,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
           <t>D1</t>
@@ -10335,6 +10642,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -10347,6 +10655,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
           <t>D2</t>
@@ -10397,6 +10707,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -10409,6 +10720,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
           <t>D3</t>
@@ -10459,6 +10772,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -10471,6 +10785,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
           <t>D4</t>
@@ -10521,6 +10837,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -10533,6 +10850,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
           <t>D5</t>
@@ -10583,6 +10902,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -10595,6 +10915,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
           <t>Overall</t>
@@ -10645,6 +10967,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -10657,6 +10980,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
           <t>overall_scale_name</t>
@@ -10707,6 +11032,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -10719,6 +11045,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
           <t>overall_n</t>
@@ -10786,6 +11114,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
           <t>overall_n</t>
@@ -10836,6 +11166,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -10853,6 +11184,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
           <t>overall_n</t>
@@ -10920,6 +11252,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
           <t>overall_baseline</t>
@@ -10987,6 +11321,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
           <t>overall_baseline</t>
@@ -11037,6 +11373,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -11054,6 +11391,7 @@
           <t>baseline</t>
         </is>
       </c>
+      <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
           <t>overall_baseline</t>
@@ -11121,6 +11459,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
           <t>overall_mean</t>
@@ -11188,6 +11528,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
           <t>overall_mean</t>
@@ -11238,6 +11580,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -11255,6 +11598,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
           <t>overall_mean</t>
@@ -11322,6 +11666,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
           <t>overall_sd</t>
@@ -11389,6 +11735,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
           <t>overall_sd</t>
@@ -11439,6 +11787,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -11456,6 +11805,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
           <t>overall_sd</t>
@@ -11523,6 +11873,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
           <t>overall_change_endpoint</t>
@@ -11573,6 +11925,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -11585,6 +11938,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
           <t>overall_change_endpoint</t>
@@ -11652,6 +12007,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
           <t>positive_scale_name</t>
@@ -11702,6 +12059,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -11714,6 +12072,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
           <t>positive_n</t>
@@ -11781,6 +12141,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
         <is>
           <t>positive_n</t>
@@ -11831,6 +12193,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -11848,6 +12211,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
           <t>positive_n</t>
@@ -11915,6 +12279,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
           <t>positive_baseline</t>
@@ -11982,6 +12348,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
           <t>positive_baseline</t>
@@ -12032,6 +12400,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -12049,6 +12418,7 @@
           <t>baseline</t>
         </is>
       </c>
+      <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
           <t>positive_baseline</t>
@@ -12116,6 +12486,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
           <t>positive_mean</t>
@@ -12183,6 +12555,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
           <t>positive_mean</t>
@@ -12233,6 +12607,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -12250,6 +12625,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr">
         <is>
           <t>positive_mean</t>
@@ -12317,6 +12693,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
           <t>positive_sd</t>
@@ -12384,6 +12762,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
           <t>positive_sd</t>
@@ -12434,6 +12814,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -12451,6 +12832,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
           <t>positive_sd</t>
@@ -12518,6 +12900,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr">
         <is>
           <t>positive_change_endpoint</t>
@@ -12568,6 +12952,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -12580,6 +12965,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
           <t>positive_change_endpoint</t>
@@ -12647,6 +13034,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
           <t>negative_scale_name</t>
@@ -12697,6 +13086,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -12709,6 +13099,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr">
         <is>
           <t>negative_n</t>
@@ -12776,6 +13168,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr">
         <is>
           <t>negative_n</t>
@@ -12826,6 +13220,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -12843,6 +13238,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
           <t>negative_n</t>
@@ -12910,6 +13306,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
         <is>
           <t>negative_baseline</t>
@@ -12977,6 +13375,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
           <t>negative_baseline</t>
@@ -13027,6 +13427,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -13044,6 +13445,7 @@
           <t>baseline</t>
         </is>
       </c>
+      <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
           <t>negative_baseline</t>
@@ -13111,6 +13513,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
           <t>negative_mean</t>
@@ -13178,6 +13582,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr">
         <is>
           <t>negative_mean</t>
@@ -13228,6 +13634,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -13245,6 +13652,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
           <t>negative_mean</t>
@@ -13312,6 +13720,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr">
         <is>
           <t>negative_sd</t>
@@ -13379,6 +13789,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr">
         <is>
           <t>negative_sd</t>
@@ -13429,6 +13841,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -13446,6 +13859,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr">
         <is>
           <t>negative_sd</t>
@@ -13513,6 +13927,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
           <t>negative_change_endpoint</t>
@@ -13563,6 +13979,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -13575,6 +13992,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
           <t>negative_change_endpoint</t>
@@ -13642,6 +14061,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
           <t>functioning_scale_name</t>
@@ -13692,6 +14113,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -13704,6 +14126,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr">
         <is>
           <t>functioning_n</t>
@@ -13771,6 +14195,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
           <t>functioning_n</t>
@@ -13821,6 +14247,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -13838,6 +14265,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
           <t>functioning_n</t>
@@ -13905,6 +14333,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
           <t>functioning_baseline</t>
@@ -13972,6 +14402,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr">
         <is>
           <t>functioning_baseline</t>
@@ -14022,6 +14454,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -14039,6 +14472,7 @@
           <t>baseline</t>
         </is>
       </c>
+      <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr">
         <is>
           <t>functioning_baseline</t>
@@ -14106,6 +14540,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr">
         <is>
           <t>functioning_mean</t>
@@ -14173,6 +14609,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
         <is>
           <t>functioning_mean</t>
@@ -14223,6 +14661,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -14240,6 +14679,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr">
         <is>
           <t>functioning_mean</t>
@@ -14307,6 +14747,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr">
         <is>
           <t>functioning_sd</t>
@@ -14374,6 +14816,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
         <is>
           <t>functioning_sd</t>
@@ -14424,6 +14868,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -14441,6 +14886,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
           <t>functioning_sd</t>
@@ -14508,6 +14954,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
           <t>functioning_change_endpoint</t>
@@ -14558,6 +15006,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -14570,6 +15019,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
           <t>functioning_change_endpoint</t>
@@ -14637,6 +15088,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
         <is>
           <t>cognition_scale_name</t>
@@ -14687,6 +15140,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -14699,6 +15153,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
         <is>
           <t>cognition_n</t>
@@ -14766,6 +15222,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
           <t>cognition_n</t>
@@ -14816,6 +15274,7 @@
           <t>No COMBO</t>
         </is>
       </c>
+      <c r="O217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -14833,6 +15292,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr">
         <is>
           <t>cognition_n</t>
@@ -14900,6 +15360,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr">
         <is>
           <t>cognition_baseline</t>
@@ -14967,6 +15429,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
         <is>
           <t>cognition_baseline</t>
@@ -15017,6 +15481,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -15034,6 +15499,7 @@
           <t>baseline</t>
         </is>
       </c>
+      <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr">
         <is>
           <t>cognition_baseline</t>
@@ -15101,6 +15567,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr">
         <is>
           <t>cognition_mean</t>
@@ -15168,6 +15636,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr">
         <is>
           <t>cognition_mean</t>
@@ -15218,6 +15688,7 @@
           <t>No COMBO</t>
         </is>
       </c>
+      <c r="O223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -15235,6 +15706,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
         <is>
           <t>cognition_mean</t>
@@ -15302,6 +15774,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr">
         <is>
           <t>cognition_sd</t>
@@ -15369,6 +15843,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
         <is>
           <t>cognition_sd</t>
@@ -15419,6 +15895,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -15436,6 +15913,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr">
         <is>
           <t>cognition_sd</t>
@@ -15503,6 +15981,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr">
         <is>
           <t>cognition_change_endpoint</t>
@@ -15553,6 +16033,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -15565,6 +16046,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr">
         <is>
           <t>cognition_change_endpoint</t>
@@ -15632,6 +16115,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr">
         <is>
           <t>depression_scale_name</t>
@@ -15682,6 +16167,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -15694,6 +16180,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr">
         <is>
           <t>depression_n</t>
@@ -15761,6 +16249,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr">
         <is>
           <t>depression_n</t>
@@ -15811,6 +16301,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -15828,6 +16319,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr">
         <is>
           <t>depression_n</t>
@@ -15895,6 +16387,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr">
         <is>
           <t>depression_baseline</t>
@@ -15962,6 +16456,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr">
         <is>
           <t>depression_baseline</t>
@@ -16012,6 +16508,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -16029,6 +16526,7 @@
           <t>baseline</t>
         </is>
       </c>
+      <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr">
         <is>
           <t>depression_baseline</t>
@@ -16096,6 +16594,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr">
         <is>
           <t>depression_mean</t>
@@ -16163,6 +16663,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr">
         <is>
           <t>depression_mean</t>
@@ -16213,6 +16715,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -16230,6 +16733,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr">
         <is>
           <t>depression_mean</t>
@@ -16297,6 +16801,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C240" t="inlineStr"/>
+      <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr">
         <is>
           <t>depression_sd</t>
@@ -16364,6 +16870,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr">
         <is>
           <t>depression_sd</t>
@@ -16414,6 +16922,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -16431,6 +16940,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr">
         <is>
           <t>depression_sd</t>
@@ -16498,6 +17008,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr">
         <is>
           <t>depression_change_endpoint</t>
@@ -16548,6 +17060,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -16560,6 +17073,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr">
         <is>
           <t>depression_change_endpoint</t>
@@ -16627,6 +17142,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr">
         <is>
           <t>weight_scale_name</t>
@@ -16677,6 +17194,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -16689,6 +17207,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr">
         <is>
           <t>weight_n</t>
@@ -16756,6 +17276,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr">
         <is>
           <t>weight_n</t>
@@ -16806,6 +17328,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -16823,6 +17346,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr">
         <is>
           <t>weight_n</t>
@@ -16890,6 +17414,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr">
         <is>
           <t>weight_baseline</t>
@@ -16957,6 +17483,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr">
         <is>
           <t>weight_baseline</t>
@@ -17007,6 +17535,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -17024,6 +17553,7 @@
           <t>baseline</t>
         </is>
       </c>
+      <c r="D251" t="inlineStr"/>
       <c r="E251" t="inlineStr">
         <is>
           <t>weight_baseline</t>
@@ -17091,6 +17621,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr">
         <is>
           <t>weight_mean</t>
@@ -17158,6 +17690,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C253" t="inlineStr"/>
+      <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr">
         <is>
           <t>weight_mean</t>
@@ -17208,6 +17742,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -17225,6 +17760,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr">
         <is>
           <t>weight_mean</t>
@@ -17292,6 +17828,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C255" t="inlineStr"/>
+      <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr">
         <is>
           <t>weight_sd</t>
@@ -17359,6 +17897,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C256" t="inlineStr"/>
+      <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr">
         <is>
           <t>weight_sd</t>
@@ -17409,6 +17949,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -17426,6 +17967,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr">
         <is>
           <t>weight_sd</t>
@@ -17493,6 +18035,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C258" t="inlineStr"/>
+      <c r="D258" t="inlineStr"/>
       <c r="E258" t="inlineStr">
         <is>
           <t>weight_change_endpoint</t>
@@ -17543,6 +18087,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -17555,6 +18100,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C259" t="inlineStr"/>
+      <c r="D259" t="inlineStr"/>
       <c r="E259" t="inlineStr">
         <is>
           <t>weight_change_endpoint</t>
@@ -17622,6 +18169,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C260" t="inlineStr"/>
+      <c r="D260" t="inlineStr"/>
       <c r="E260" t="inlineStr">
         <is>
           <t>Timepoint</t>
@@ -17672,6 +18221,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -17684,6 +18234,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C261" t="inlineStr"/>
+      <c r="D261" t="inlineStr"/>
       <c r="E261" t="inlineStr">
         <is>
           <t>prolactin_scale_name</t>
@@ -17734,6 +18286,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -17746,6 +18299,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr"/>
       <c r="E262" t="inlineStr">
         <is>
           <t>prolactin_n</t>
@@ -17813,6 +18368,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C263" t="inlineStr"/>
+      <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr">
         <is>
           <t>prolactin_n</t>
@@ -17863,6 +18420,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -17880,6 +18438,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D264" t="inlineStr"/>
       <c r="E264" t="inlineStr">
         <is>
           <t>prolactin_n</t>
@@ -17947,6 +18506,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C265" t="inlineStr"/>
+      <c r="D265" t="inlineStr"/>
       <c r="E265" t="inlineStr">
         <is>
           <t>prolactin_baseline</t>
@@ -18014,6 +18575,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C266" t="inlineStr"/>
+      <c r="D266" t="inlineStr"/>
       <c r="E266" t="inlineStr">
         <is>
           <t>prolactin_baseline</t>
@@ -18064,6 +18627,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -18081,6 +18645,7 @@
           <t>baseline</t>
         </is>
       </c>
+      <c r="D267" t="inlineStr"/>
       <c r="E267" t="inlineStr">
         <is>
           <t>prolactin_baseline</t>
@@ -18148,6 +18713,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C268" t="inlineStr"/>
+      <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr">
         <is>
           <t>prolactin_mean</t>
@@ -18215,6 +18782,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C269" t="inlineStr"/>
+      <c r="D269" t="inlineStr"/>
       <c r="E269" t="inlineStr">
         <is>
           <t>prolactin_mean</t>
@@ -18265,6 +18834,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -18282,6 +18852,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D270" t="inlineStr"/>
       <c r="E270" t="inlineStr">
         <is>
           <t>prolactin_mean</t>
@@ -18349,6 +18920,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C271" t="inlineStr"/>
+      <c r="D271" t="inlineStr"/>
       <c r="E271" t="inlineStr">
         <is>
           <t>prolactin_sd</t>
@@ -18416,6 +18989,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C272" t="inlineStr"/>
+      <c r="D272" t="inlineStr"/>
       <c r="E272" t="inlineStr">
         <is>
           <t>prolactin_sd</t>
@@ -18466,6 +19041,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -18483,6 +19059,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D273" t="inlineStr"/>
       <c r="E273" t="inlineStr">
         <is>
           <t>prolactin_sd</t>
@@ -18550,6 +19127,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C274" t="inlineStr"/>
+      <c r="D274" t="inlineStr"/>
       <c r="E274" t="inlineStr">
         <is>
           <t>prolactin_change_endpoint</t>
@@ -18600,6 +19179,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -18612,6 +19192,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" t="inlineStr"/>
       <c r="E275" t="inlineStr">
         <is>
           <t>prolactin_change_endpoint</t>
@@ -18684,6 +19266,7 @@
           <t>adverse event</t>
         </is>
       </c>
+      <c r="D276" t="inlineStr"/>
       <c r="E276" t="inlineStr">
         <is>
           <t>adverse_event_e</t>
@@ -18751,6 +19334,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="inlineStr"/>
       <c r="E277" t="inlineStr">
         <is>
           <t>adverse_event_e</t>
@@ -18801,6 +19386,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -18818,6 +19404,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D278" t="inlineStr"/>
       <c r="E278" t="inlineStr">
         <is>
           <t>adverse_event_e</t>
@@ -18890,6 +19477,7 @@
           <t>adverse event</t>
         </is>
       </c>
+      <c r="D279" t="inlineStr"/>
       <c r="E279" t="inlineStr">
         <is>
           <t>adverse_event_n</t>
@@ -18957,6 +19545,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C280" t="inlineStr"/>
+      <c r="D280" t="inlineStr"/>
       <c r="E280" t="inlineStr">
         <is>
           <t>adverse_event_n</t>
@@ -19007,6 +19597,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -19024,6 +19615,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D281" t="inlineStr"/>
       <c r="E281" t="inlineStr">
         <is>
           <t>adverse_event_n</t>
@@ -19096,6 +19688,7 @@
           <t>anticholinergic symptom</t>
         </is>
       </c>
+      <c r="D282" t="inlineStr"/>
       <c r="E282" t="inlineStr">
         <is>
           <t>anticholinergic_symptom_e</t>
@@ -19163,6 +19756,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C283" t="inlineStr"/>
+      <c r="D283" t="inlineStr"/>
       <c r="E283" t="inlineStr">
         <is>
           <t>anticholinergic_symptom_e</t>
@@ -19213,6 +19808,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -19230,6 +19826,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D284" t="inlineStr"/>
       <c r="E284" t="inlineStr">
         <is>
           <t>anticholinergic_symptom_e</t>
@@ -19302,6 +19899,7 @@
           <t>anticholinergic symptom</t>
         </is>
       </c>
+      <c r="D285" t="inlineStr"/>
       <c r="E285" t="inlineStr">
         <is>
           <t>anticholinergic_symptom_n</t>
@@ -19369,6 +19967,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C286" t="inlineStr"/>
+      <c r="D286" t="inlineStr"/>
       <c r="E286" t="inlineStr">
         <is>
           <t>anticholinergic_symptom_n</t>
@@ -19419,6 +20019,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -19436,6 +20037,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr">
         <is>
           <t>anticholinergic_symptom_n</t>
@@ -19508,6 +20110,7 @@
           <t>anxiousness</t>
         </is>
       </c>
+      <c r="D288" t="inlineStr"/>
       <c r="E288" t="inlineStr">
         <is>
           <t>anxiety_e</t>
@@ -19575,6 +20178,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C289" t="inlineStr"/>
+      <c r="D289" t="inlineStr"/>
       <c r="E289" t="inlineStr">
         <is>
           <t>anxiety_e</t>
@@ -19625,6 +20230,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -19642,6 +20248,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D290" t="inlineStr"/>
       <c r="E290" t="inlineStr">
         <is>
           <t>anxiety_e</t>
@@ -19714,6 +20321,7 @@
           <t>anxiousness</t>
         </is>
       </c>
+      <c r="D291" t="inlineStr"/>
       <c r="E291" t="inlineStr">
         <is>
           <t>anxiety_n</t>
@@ -19781,6 +20389,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C292" t="inlineStr"/>
+      <c r="D292" t="inlineStr"/>
       <c r="E292" t="inlineStr">
         <is>
           <t>anxiety_n</t>
@@ -19831,6 +20441,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -19848,6 +20459,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D293" t="inlineStr"/>
       <c r="E293" t="inlineStr">
         <is>
           <t>anxiety_n</t>
@@ -19920,6 +20532,7 @@
           <t>dizziness</t>
         </is>
       </c>
+      <c r="D294" t="inlineStr"/>
       <c r="E294" t="inlineStr">
         <is>
           <t>dizziness_e</t>
@@ -19987,6 +20600,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C295" t="inlineStr"/>
+      <c r="D295" t="inlineStr"/>
       <c r="E295" t="inlineStr">
         <is>
           <t>dizziness_e</t>
@@ -20037,6 +20652,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -20054,6 +20670,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D296" t="inlineStr"/>
       <c r="E296" t="inlineStr">
         <is>
           <t>dizziness_e</t>
@@ -20126,6 +20743,7 @@
           <t>dizziness</t>
         </is>
       </c>
+      <c r="D297" t="inlineStr"/>
       <c r="E297" t="inlineStr">
         <is>
           <t>dizziness_n</t>
@@ -20193,6 +20811,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C298" t="inlineStr"/>
+      <c r="D298" t="inlineStr"/>
       <c r="E298" t="inlineStr">
         <is>
           <t>dizziness_n</t>
@@ -20243,6 +20863,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -20260,6 +20881,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D299" t="inlineStr"/>
       <c r="E299" t="inlineStr">
         <is>
           <t>dizziness_n</t>
@@ -20332,6 +20954,7 @@
           <t>headache</t>
         </is>
       </c>
+      <c r="D300" t="inlineStr"/>
       <c r="E300" t="inlineStr">
         <is>
           <t>headache_e</t>
@@ -20399,6 +21022,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C301" t="inlineStr"/>
+      <c r="D301" t="inlineStr"/>
       <c r="E301" t="inlineStr">
         <is>
           <t>headache_e</t>
@@ -20449,6 +21074,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -20466,6 +21092,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D302" t="inlineStr"/>
       <c r="E302" t="inlineStr">
         <is>
           <t>headache_e</t>
@@ -20538,6 +21165,7 @@
           <t>headache</t>
         </is>
       </c>
+      <c r="D303" t="inlineStr"/>
       <c r="E303" t="inlineStr">
         <is>
           <t>headache_n</t>
@@ -20605,6 +21233,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C304" t="inlineStr"/>
+      <c r="D304" t="inlineStr"/>
       <c r="E304" t="inlineStr">
         <is>
           <t>headache_n</t>
@@ -20655,6 +21285,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -20672,6 +21303,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D305" t="inlineStr"/>
       <c r="E305" t="inlineStr">
         <is>
           <t>headache_n</t>
@@ -20744,6 +21376,7 @@
           <t>nausea</t>
         </is>
       </c>
+      <c r="D306" t="inlineStr"/>
       <c r="E306" t="inlineStr">
         <is>
           <t>nausea_vomitting_e</t>
@@ -20811,6 +21444,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C307" t="inlineStr"/>
+      <c r="D307" t="inlineStr"/>
       <c r="E307" t="inlineStr">
         <is>
           <t>nausea_vomitting_e</t>
@@ -20861,6 +21496,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -20878,6 +21514,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D308" t="inlineStr"/>
       <c r="E308" t="inlineStr">
         <is>
           <t>nausea_vomitting_e</t>
@@ -20950,6 +21587,7 @@
           <t>nausea</t>
         </is>
       </c>
+      <c r="D309" t="inlineStr"/>
       <c r="E309" t="inlineStr">
         <is>
           <t>nausea_vomitting_n</t>
@@ -21017,6 +21655,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C310" t="inlineStr"/>
+      <c r="D310" t="inlineStr"/>
       <c r="E310" t="inlineStr">
         <is>
           <t>nausea_vomitting_n</t>
@@ -21067,6 +21707,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -21084,6 +21725,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D311" t="inlineStr"/>
       <c r="E311" t="inlineStr">
         <is>
           <t>nausea_vomitting_n</t>
@@ -21156,6 +21798,7 @@
           <t>tiredness</t>
         </is>
       </c>
+      <c r="D312" t="inlineStr"/>
       <c r="E312" t="inlineStr">
         <is>
           <t>sedation_e</t>
@@ -21223,6 +21866,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C313" t="inlineStr"/>
+      <c r="D313" t="inlineStr"/>
       <c r="E313" t="inlineStr">
         <is>
           <t>sedation_e</t>
@@ -21273,6 +21918,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -21290,6 +21936,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D314" t="inlineStr"/>
       <c r="E314" t="inlineStr">
         <is>
           <t>sedation_e</t>
@@ -21362,6 +22009,7 @@
           <t>tiredness</t>
         </is>
       </c>
+      <c r="D315" t="inlineStr"/>
       <c r="E315" t="inlineStr">
         <is>
           <t>sedation_n</t>
@@ -21429,6 +22077,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C316" t="inlineStr"/>
+      <c r="D316" t="inlineStr"/>
       <c r="E316" t="inlineStr">
         <is>
           <t>sedation_n</t>
@@ -21479,6 +22129,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -21496,6 +22147,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D317" t="inlineStr"/>
       <c r="E317" t="inlineStr">
         <is>
           <t>sedation_n</t>
@@ -21568,6 +22220,7 @@
           <t>hyperprolactinemia</t>
         </is>
       </c>
+      <c r="D318" t="inlineStr"/>
       <c r="E318" t="inlineStr">
         <is>
           <t>hyperprolactinemia_e</t>
@@ -21635,6 +22288,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C319" t="inlineStr"/>
+      <c r="D319" t="inlineStr"/>
       <c r="E319" t="inlineStr">
         <is>
           <t>hyperprolactinemia_e</t>
@@ -21685,6 +22340,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -21702,6 +22358,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D320" t="inlineStr"/>
       <c r="E320" t="inlineStr">
         <is>
           <t>hyperprolactinemia_e</t>
@@ -21774,6 +22431,7 @@
           <t>hyperprolactinemia</t>
         </is>
       </c>
+      <c r="D321" t="inlineStr"/>
       <c r="E321" t="inlineStr">
         <is>
           <t>hyperprolactinemia_n</t>
@@ -21841,6 +22499,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C322" t="inlineStr"/>
+      <c r="D322" t="inlineStr"/>
       <c r="E322" t="inlineStr">
         <is>
           <t>hyperprolactinemia_n</t>
@@ -21891,6 +22551,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -21908,6 +22569,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D323" t="inlineStr"/>
       <c r="E323" t="inlineStr">
         <is>
           <t>hyperprolactinemia_n</t>
@@ -21980,6 +22642,7 @@
           <t>QTc prolongation</t>
         </is>
       </c>
+      <c r="D324" t="inlineStr"/>
       <c r="E324" t="inlineStr">
         <is>
           <t>qtc_prolongation_e</t>
@@ -22047,6 +22710,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C325" t="inlineStr"/>
+      <c r="D325" t="inlineStr"/>
       <c r="E325" t="inlineStr">
         <is>
           <t>qtc_prolongation_e</t>
@@ -22097,6 +22762,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -22114,6 +22780,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D326" t="inlineStr"/>
       <c r="E326" t="inlineStr">
         <is>
           <t>qtc_prolongation_e</t>
@@ -22186,6 +22853,7 @@
           <t>QTc prolongation</t>
         </is>
       </c>
+      <c r="D327" t="inlineStr"/>
       <c r="E327" t="inlineStr">
         <is>
           <t>qtc_prolongation_n</t>
@@ -22253,6 +22921,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C328" t="inlineStr"/>
+      <c r="D328" t="inlineStr"/>
       <c r="E328" t="inlineStr">
         <is>
           <t>qtc_prolongation_n</t>
@@ -22303,6 +22973,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -22320,6 +22991,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D329" t="inlineStr"/>
       <c r="E329" t="inlineStr">
         <is>
           <t>qtc_prolongation_n</t>
@@ -22392,6 +23064,7 @@
           <t>agitation</t>
         </is>
       </c>
+      <c r="D330" t="inlineStr"/>
       <c r="E330" t="inlineStr">
         <is>
           <t>agitation_e</t>
@@ -22459,6 +23132,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C331" t="inlineStr"/>
+      <c r="D331" t="inlineStr"/>
       <c r="E331" t="inlineStr">
         <is>
           <t>agitation_e</t>
@@ -22509,6 +23184,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -22526,6 +23202,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D332" t="inlineStr"/>
       <c r="E332" t="inlineStr">
         <is>
           <t>agitation_e</t>
@@ -22598,6 +23275,7 @@
           <t>agitation</t>
         </is>
       </c>
+      <c r="D333" t="inlineStr"/>
       <c r="E333" t="inlineStr">
         <is>
           <t>agitation_n</t>
@@ -22665,6 +23343,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C334" t="inlineStr"/>
+      <c r="D334" t="inlineStr"/>
       <c r="E334" t="inlineStr">
         <is>
           <t>agitation_n</t>
@@ -22715,6 +23395,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -22732,6 +23413,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D335" t="inlineStr"/>
       <c r="E335" t="inlineStr">
         <is>
           <t>agitation_n</t>
@@ -22804,6 +23486,7 @@
           <t>hypotension</t>
         </is>
       </c>
+      <c r="D336" t="inlineStr"/>
       <c r="E336" t="inlineStr">
         <is>
           <t>hypotension_e</t>
@@ -22871,6 +23554,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C337" t="inlineStr"/>
+      <c r="D337" t="inlineStr"/>
       <c r="E337" t="inlineStr">
         <is>
           <t>hypotension_e</t>
@@ -22921,6 +23606,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -22938,6 +23624,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D338" t="inlineStr"/>
       <c r="E338" t="inlineStr">
         <is>
           <t>hypotension_e</t>
@@ -23010,6 +23697,7 @@
           <t>hypotension</t>
         </is>
       </c>
+      <c r="D339" t="inlineStr"/>
       <c r="E339" t="inlineStr">
         <is>
           <t>hypotension_n</t>
@@ -23077,6 +23765,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C340" t="inlineStr"/>
+      <c r="D340" t="inlineStr"/>
       <c r="E340" t="inlineStr">
         <is>
           <t>hypotension_n</t>
@@ -23127,6 +23817,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -23144,6 +23835,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D341" t="inlineStr"/>
       <c r="E341" t="inlineStr">
         <is>
           <t>hypotension_n</t>
@@ -23216,6 +23908,7 @@
           <t>insomnia</t>
         </is>
       </c>
+      <c r="D342" t="inlineStr"/>
       <c r="E342" t="inlineStr">
         <is>
           <t>insomnia_e</t>
@@ -23283,6 +23976,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C343" t="inlineStr"/>
+      <c r="D343" t="inlineStr"/>
       <c r="E343" t="inlineStr">
         <is>
           <t>insomnia_e</t>
@@ -23333,6 +24028,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -23350,6 +24046,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D344" t="inlineStr"/>
       <c r="E344" t="inlineStr">
         <is>
           <t>insomnia_e</t>
@@ -23422,6 +24119,7 @@
           <t>insomnia</t>
         </is>
       </c>
+      <c r="D345" t="inlineStr"/>
       <c r="E345" t="inlineStr">
         <is>
           <t>insomnia_n</t>
@@ -23489,6 +24187,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C346" t="inlineStr"/>
+      <c r="D346" t="inlineStr"/>
       <c r="E346" t="inlineStr">
         <is>
           <t>insomnia_n</t>
@@ -23539,6 +24239,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -23556,6 +24257,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D347" t="inlineStr"/>
       <c r="E347" t="inlineStr">
         <is>
           <t>insomnia_n</t>
@@ -23628,6 +24330,7 @@
           <t>akathisia</t>
         </is>
       </c>
+      <c r="D348" t="inlineStr"/>
       <c r="E348" t="inlineStr">
         <is>
           <t>akathisia_e</t>
@@ -23695,6 +24398,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C349" t="inlineStr"/>
+      <c r="D349" t="inlineStr"/>
       <c r="E349" t="inlineStr">
         <is>
           <t>akathisia_e</t>
@@ -23745,6 +24450,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -23762,6 +24468,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D350" t="inlineStr"/>
       <c r="E350" t="inlineStr">
         <is>
           <t>akathisia_e</t>
@@ -23834,6 +24541,7 @@
           <t>akathisia</t>
         </is>
       </c>
+      <c r="D351" t="inlineStr"/>
       <c r="E351" t="inlineStr">
         <is>
           <t>akathisia_n</t>
@@ -23901,6 +24609,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C352" t="inlineStr"/>
+      <c r="D352" t="inlineStr"/>
       <c r="E352" t="inlineStr">
         <is>
           <t>akathisia_n</t>
@@ -23951,6 +24661,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -23968,6 +24679,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D353" t="inlineStr"/>
       <c r="E353" t="inlineStr">
         <is>
           <t>akathisia_n</t>
@@ -24035,6 +24747,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C354" t="inlineStr"/>
+      <c r="D354" t="inlineStr"/>
       <c r="E354" t="inlineStr">
         <is>
           <t>eps_symptoms_e</t>
@@ -24102,6 +24816,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C355" t="inlineStr"/>
+      <c r="D355" t="inlineStr"/>
       <c r="E355" t="inlineStr">
         <is>
           <t>eps_symptoms_e</t>
@@ -24152,6 +24868,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -24169,6 +24886,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D356" t="inlineStr"/>
       <c r="E356" t="inlineStr">
         <is>
           <t>eps_symptoms_e</t>
@@ -24236,6 +24954,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C357" t="inlineStr"/>
+      <c r="D357" t="inlineStr"/>
       <c r="E357" t="inlineStr">
         <is>
           <t>eps_symptoms_n</t>
@@ -24303,6 +25023,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C358" t="inlineStr"/>
+      <c r="D358" t="inlineStr"/>
       <c r="E358" t="inlineStr">
         <is>
           <t>eps_symptoms_n</t>
@@ -24353,6 +25075,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -24370,6 +25093,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D359" t="inlineStr"/>
       <c r="E359" t="inlineStr">
         <is>
           <t>eps_symptoms_n</t>
@@ -24437,6 +25161,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C360" t="inlineStr"/>
+      <c r="D360" t="inlineStr"/>
       <c r="E360" t="inlineStr">
         <is>
           <t>weight_increased_e</t>
@@ -24504,6 +25230,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C361" t="inlineStr"/>
+      <c r="D361" t="inlineStr"/>
       <c r="E361" t="inlineStr">
         <is>
           <t>weight_increased_e</t>
@@ -24554,6 +25282,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -24571,6 +25300,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D362" t="inlineStr"/>
       <c r="E362" t="inlineStr">
         <is>
           <t>weight_increased_e</t>
@@ -24638,6 +25368,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C363" t="inlineStr"/>
+      <c r="D363" t="inlineStr"/>
       <c r="E363" t="inlineStr">
         <is>
           <t>weight_increased_n</t>
@@ -24705,6 +25437,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C364" t="inlineStr"/>
+      <c r="D364" t="inlineStr"/>
       <c r="E364" t="inlineStr">
         <is>
           <t>weight_increased_n</t>
@@ -24755,6 +25489,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -24772,6 +25507,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D365" t="inlineStr"/>
       <c r="E365" t="inlineStr">
         <is>
           <t>weight_increased_n</t>
@@ -24839,6 +25575,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C366" t="inlineStr"/>
+      <c r="D366" t="inlineStr"/>
       <c r="E366" t="inlineStr">
         <is>
           <t>qtc_md_point</t>
@@ -24906,6 +25644,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C367" t="inlineStr"/>
+      <c r="D367" t="inlineStr"/>
       <c r="E367" t="inlineStr">
         <is>
           <t>qtc_md_point</t>
@@ -24973,6 +25713,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C368" t="inlineStr"/>
+      <c r="D368" t="inlineStr"/>
       <c r="E368" t="inlineStr">
         <is>
           <t>qtc_md_se</t>
@@ -25040,6 +25782,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C369" t="inlineStr"/>
+      <c r="D369" t="inlineStr"/>
       <c r="E369" t="inlineStr">
         <is>
           <t>qtc_md_se</t>
@@ -25107,6 +25851,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C370" t="inlineStr"/>
+      <c r="D370" t="inlineStr"/>
       <c r="E370" t="inlineStr">
         <is>
           <t>qtc_md_se</t>
@@ -25157,6 +25903,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -25169,6 +25916,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C371" t="inlineStr"/>
+      <c r="D371" t="inlineStr"/>
       <c r="E371" t="inlineStr">
         <is>
           <t>crossover_periods</t>
@@ -25219,13 +25968,19 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O371" t="inlineStr"/>
     </row>
     <row r="372">
+      <c r="A372" t="inlineStr"/>
+      <c r="B372" t="inlineStr"/>
       <c r="C372" t="inlineStr">
         <is>
           <t>female sex</t>
         </is>
       </c>
+      <c r="D372" t="inlineStr"/>
+      <c r="E372" t="inlineStr"/>
+      <c r="F372" t="inlineStr"/>
       <c r="G372" t="inlineStr">
         <is>
           <t>BCIO:015327</t>
@@ -25266,8 +26021,15 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O372" t="inlineStr"/>
     </row>
     <row r="373">
+      <c r="A373" t="inlineStr"/>
+      <c r="B373" t="inlineStr"/>
+      <c r="C373" t="inlineStr"/>
+      <c r="D373" t="inlineStr"/>
+      <c r="E373" t="inlineStr"/>
+      <c r="F373" t="inlineStr"/>
       <c r="G373" t="inlineStr">
         <is>
           <t>STATO:0000599</t>
@@ -25298,8 +26060,17 @@
           <t>structural</t>
         </is>
       </c>
+      <c r="M373" t="inlineStr"/>
+      <c r="N373" t="inlineStr"/>
+      <c r="O373" t="inlineStr"/>
     </row>
     <row r="374">
+      <c r="A374" t="inlineStr"/>
+      <c r="B374" t="inlineStr"/>
+      <c r="C374" t="inlineStr"/>
+      <c r="D374" t="inlineStr"/>
+      <c r="E374" t="inlineStr"/>
+      <c r="F374" t="inlineStr"/>
       <c r="G374" t="inlineStr">
         <is>
           <t>GMHO:0000036</t>
@@ -25320,13 +26091,23 @@
           <t>adverse event following an intervention</t>
         </is>
       </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M374" t="inlineStr"/>
+      <c r="N374" t="inlineStr"/>
+      <c r="O374" t="inlineStr"/>
     </row>
     <row r="375">
+      <c r="A375" t="inlineStr"/>
+      <c r="B375" t="inlineStr"/>
+      <c r="C375" t="inlineStr"/>
+      <c r="D375" t="inlineStr"/>
+      <c r="E375" t="inlineStr"/>
+      <c r="F375" t="inlineStr"/>
       <c r="G375" t="inlineStr">
         <is>
           <t>GMHO:0000130</t>
@@ -25347,13 +26128,23 @@
           <t>mental disposition</t>
         </is>
       </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M375" t="inlineStr"/>
+      <c r="N375" t="inlineStr"/>
+      <c r="O375" t="inlineStr"/>
     </row>
     <row r="376">
+      <c r="A376" t="inlineStr"/>
+      <c r="B376" t="inlineStr"/>
+      <c r="C376" t="inlineStr"/>
+      <c r="D376" t="inlineStr"/>
+      <c r="E376" t="inlineStr"/>
+      <c r="F376" t="inlineStr"/>
       <c r="G376" t="inlineStr">
         <is>
           <t>GMHO:0000142</t>
@@ -25374,13 +26165,23 @@
           <t>symptom</t>
         </is>
       </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M376" t="inlineStr"/>
+      <c r="N376" t="inlineStr"/>
+      <c r="O376" t="inlineStr"/>
     </row>
     <row r="377">
+      <c r="A377" t="inlineStr"/>
+      <c r="B377" t="inlineStr"/>
+      <c r="C377" t="inlineStr"/>
+      <c r="D377" t="inlineStr"/>
+      <c r="E377" t="inlineStr"/>
+      <c r="F377" t="inlineStr"/>
       <c r="G377" t="inlineStr">
         <is>
           <t>BCIO:015105</t>
@@ -25401,13 +26202,23 @@
           <t>bodily quality</t>
         </is>
       </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M377" t="inlineStr"/>
+      <c r="N377" t="inlineStr"/>
+      <c r="O377" t="inlineStr"/>
     </row>
     <row r="378">
+      <c r="A378" t="inlineStr"/>
+      <c r="B378" t="inlineStr"/>
+      <c r="C378" t="inlineStr"/>
+      <c r="D378" t="inlineStr"/>
+      <c r="E378" t="inlineStr"/>
+      <c r="F378" t="inlineStr"/>
       <c r="G378" t="inlineStr">
         <is>
           <t>MF:0000032</t>
@@ -25428,13 +26239,23 @@
           <t>disposition</t>
         </is>
       </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M378" t="inlineStr"/>
+      <c r="N378" t="inlineStr"/>
+      <c r="O378" t="inlineStr"/>
     </row>
     <row r="379">
+      <c r="A379" t="inlineStr"/>
+      <c r="B379" t="inlineStr"/>
+      <c r="C379" t="inlineStr"/>
+      <c r="D379" t="inlineStr"/>
+      <c r="E379" t="inlineStr"/>
+      <c r="F379" t="inlineStr"/>
       <c r="G379" t="inlineStr">
         <is>
           <t>OGMS:0000060</t>
@@ -25455,13 +26276,23 @@
           <t>process</t>
         </is>
       </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M379" t="inlineStr"/>
+      <c r="N379" t="inlineStr"/>
+      <c r="O379" t="inlineStr"/>
     </row>
     <row r="380">
+      <c r="A380" t="inlineStr"/>
+      <c r="B380" t="inlineStr"/>
+      <c r="C380" t="inlineStr"/>
+      <c r="D380" t="inlineStr"/>
+      <c r="E380" t="inlineStr"/>
+      <c r="F380" t="inlineStr"/>
       <c r="G380" t="inlineStr">
         <is>
           <t>MF:0000074</t>
@@ -25482,13 +26313,23 @@
           <t>quality</t>
         </is>
       </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M380" t="inlineStr"/>
+      <c r="N380" t="inlineStr"/>
+      <c r="O380" t="inlineStr"/>
     </row>
     <row r="381">
+      <c r="A381" t="inlineStr"/>
+      <c r="B381" t="inlineStr"/>
+      <c r="C381" t="inlineStr"/>
+      <c r="D381" t="inlineStr"/>
+      <c r="E381" t="inlineStr"/>
+      <c r="F381" t="inlineStr"/>
       <c r="G381" t="inlineStr">
         <is>
           <t>OBCS:0000070</t>
@@ -25509,13 +26350,23 @@
           <t>quantitative confidence value</t>
         </is>
       </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M381" t="inlineStr"/>
+      <c r="N381" t="inlineStr"/>
+      <c r="O381" t="inlineStr"/>
     </row>
     <row r="382">
+      <c r="A382" t="inlineStr"/>
+      <c r="B382" t="inlineStr"/>
+      <c r="C382" t="inlineStr"/>
+      <c r="D382" t="inlineStr"/>
+      <c r="E382" t="inlineStr"/>
+      <c r="F382" t="inlineStr"/>
       <c r="G382" t="inlineStr">
         <is>
           <t>IAO:0000027</t>
@@ -25536,13 +26387,23 @@
           <t>information content entity</t>
         </is>
       </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M382" t="inlineStr"/>
+      <c r="N382" t="inlineStr"/>
+      <c r="O382" t="inlineStr"/>
     </row>
     <row r="383">
+      <c r="A383" t="inlineStr"/>
+      <c r="B383" t="inlineStr"/>
+      <c r="C383" t="inlineStr"/>
+      <c r="D383" t="inlineStr"/>
+      <c r="E383" t="inlineStr"/>
+      <c r="F383" t="inlineStr"/>
       <c r="G383" t="inlineStr">
         <is>
           <t>IAO:0000033</t>
@@ -25563,13 +26424,23 @@
           <t>information content entity</t>
         </is>
       </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M383" t="inlineStr"/>
+      <c r="N383" t="inlineStr"/>
+      <c r="O383" t="inlineStr"/>
     </row>
     <row r="384">
+      <c r="A384" t="inlineStr"/>
+      <c r="B384" t="inlineStr"/>
+      <c r="C384" t="inlineStr"/>
+      <c r="D384" t="inlineStr"/>
+      <c r="E384" t="inlineStr"/>
+      <c r="F384" t="inlineStr"/>
       <c r="G384" t="inlineStr">
         <is>
           <t>OBI:0000984</t>
@@ -25590,13 +26461,23 @@
           <t>measurement datum</t>
         </is>
       </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M384" t="inlineStr"/>
+      <c r="N384" t="inlineStr"/>
+      <c r="O384" t="inlineStr"/>
     </row>
     <row r="385">
+      <c r="A385" t="inlineStr"/>
+      <c r="B385" t="inlineStr"/>
+      <c r="C385" t="inlineStr"/>
+      <c r="D385" t="inlineStr"/>
+      <c r="E385" t="inlineStr"/>
+      <c r="F385" t="inlineStr"/>
       <c r="G385" t="inlineStr">
         <is>
           <t>BCIO:035000</t>
@@ -25617,13 +26498,23 @@
           <t>data item</t>
         </is>
       </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M385" t="inlineStr"/>
+      <c r="N385" t="inlineStr"/>
+      <c r="O385" t="inlineStr"/>
     </row>
     <row r="386">
+      <c r="A386" t="inlineStr"/>
+      <c r="B386" t="inlineStr"/>
+      <c r="C386" t="inlineStr"/>
+      <c r="D386" t="inlineStr"/>
+      <c r="E386" t="inlineStr"/>
+      <c r="F386" t="inlineStr"/>
       <c r="G386" t="inlineStr">
         <is>
           <t>OGMS:0000087</t>
@@ -25644,13 +26535,23 @@
           <t>object aggregate</t>
         </is>
       </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M386" t="inlineStr"/>
+      <c r="N386" t="inlineStr"/>
+      <c r="O386" t="inlineStr"/>
     </row>
     <row r="387">
+      <c r="A387" t="inlineStr"/>
+      <c r="B387" t="inlineStr"/>
+      <c r="C387" t="inlineStr"/>
+      <c r="D387" t="inlineStr"/>
+      <c r="E387" t="inlineStr"/>
+      <c r="F387" t="inlineStr"/>
       <c r="G387" t="inlineStr">
         <is>
           <t>PATO:0001035</t>
@@ -25671,13 +26572,23 @@
           <t>physical quality</t>
         </is>
       </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M387" t="inlineStr"/>
+      <c r="N387" t="inlineStr"/>
+      <c r="O387" t="inlineStr"/>
     </row>
     <row r="388">
+      <c r="A388" t="inlineStr"/>
+      <c r="B388" t="inlineStr"/>
+      <c r="C388" t="inlineStr"/>
+      <c r="D388" t="inlineStr"/>
+      <c r="E388" t="inlineStr"/>
+      <c r="F388" t="inlineStr"/>
       <c r="G388" t="inlineStr">
         <is>
           <t>BFO:0000031</t>
@@ -25698,18 +26609,27 @@
           <t>continuant</t>
         </is>
       </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M388" t="inlineStr"/>
+      <c r="N388" t="inlineStr"/>
+      <c r="O388" t="inlineStr"/>
     </row>
     <row r="389">
+      <c r="A389" t="inlineStr"/>
+      <c r="B389" t="inlineStr"/>
       <c r="C389" t="inlineStr">
         <is>
           <t>health condition</t>
         </is>
       </c>
+      <c r="D389" t="inlineStr"/>
+      <c r="E389" t="inlineStr"/>
+      <c r="F389" t="inlineStr"/>
       <c r="G389" t="inlineStr">
         <is>
           <t>BCIO:015092</t>
@@ -25730,13 +26650,23 @@
           <t>personal attribute</t>
         </is>
       </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M389" t="inlineStr"/>
+      <c r="N389" t="inlineStr"/>
+      <c r="O389" t="inlineStr"/>
     </row>
     <row r="390">
+      <c r="A390" t="inlineStr"/>
+      <c r="B390" t="inlineStr"/>
+      <c r="C390" t="inlineStr"/>
+      <c r="D390" t="inlineStr"/>
+      <c r="E390" t="inlineStr"/>
+      <c r="F390" t="inlineStr"/>
       <c r="G390" t="inlineStr">
         <is>
           <t>CMO:0000230</t>
@@ -25757,6 +26687,7 @@
           <t>heart measurement</t>
         </is>
       </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="inlineStr">
         <is>
           <t>structural</t>
@@ -25772,8 +26703,15 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O390" t="inlineStr"/>
     </row>
     <row r="391">
+      <c r="A391" t="inlineStr"/>
+      <c r="B391" t="inlineStr"/>
+      <c r="C391" t="inlineStr"/>
+      <c r="D391" t="inlineStr"/>
+      <c r="E391" t="inlineStr"/>
+      <c r="F391" t="inlineStr"/>
       <c r="G391" t="inlineStr">
         <is>
           <t>EFO:0004730</t>
@@ -25794,13 +26732,23 @@
           <t>measurement</t>
         </is>
       </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M391" t="inlineStr"/>
+      <c r="N391" t="inlineStr"/>
+      <c r="O391" t="inlineStr"/>
     </row>
     <row r="392">
+      <c r="A392" t="inlineStr"/>
+      <c r="B392" t="inlineStr"/>
+      <c r="C392" t="inlineStr"/>
+      <c r="D392" t="inlineStr"/>
+      <c r="E392" t="inlineStr"/>
+      <c r="F392" t="inlineStr"/>
       <c r="G392" t="inlineStr">
         <is>
           <t>MF:0000016</t>
@@ -25821,13 +26769,23 @@
           <t>extended organism</t>
         </is>
       </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M392" t="inlineStr"/>
+      <c r="N392" t="inlineStr"/>
+      <c r="O392" t="inlineStr"/>
     </row>
     <row r="393">
+      <c r="A393" t="inlineStr"/>
+      <c r="B393" t="inlineStr"/>
+      <c r="C393" t="inlineStr"/>
+      <c r="D393" t="inlineStr"/>
+      <c r="E393" t="inlineStr"/>
+      <c r="F393" t="inlineStr"/>
       <c r="G393" t="inlineStr">
         <is>
           <t>BFO:0000141</t>
@@ -25848,13 +26806,23 @@
           <t>independent continuant</t>
         </is>
       </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M393" t="inlineStr"/>
+      <c r="N393" t="inlineStr"/>
+      <c r="O393" t="inlineStr"/>
     </row>
     <row r="394">
+      <c r="A394" t="inlineStr"/>
+      <c r="B394" t="inlineStr"/>
+      <c r="C394" t="inlineStr"/>
+      <c r="D394" t="inlineStr"/>
+      <c r="E394" t="inlineStr"/>
+      <c r="F394" t="inlineStr"/>
       <c r="G394" t="inlineStr">
         <is>
           <t>IAO:0000030</t>
@@ -25875,13 +26843,23 @@
           <t>generically dependent continuant</t>
         </is>
       </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M394" t="inlineStr"/>
+      <c r="N394" t="inlineStr"/>
+      <c r="O394" t="inlineStr"/>
     </row>
     <row r="395">
+      <c r="A395" t="inlineStr"/>
+      <c r="B395" t="inlineStr"/>
+      <c r="C395" t="inlineStr"/>
+      <c r="D395" t="inlineStr"/>
+      <c r="E395" t="inlineStr"/>
+      <c r="F395" t="inlineStr"/>
       <c r="G395" t="inlineStr">
         <is>
           <t>GMHO:0000150</t>
@@ -25902,13 +26880,23 @@
           <t>symptom severity</t>
         </is>
       </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M395" t="inlineStr"/>
+      <c r="N395" t="inlineStr"/>
+      <c r="O395" t="inlineStr"/>
     </row>
     <row r="396">
+      <c r="A396" t="inlineStr"/>
+      <c r="B396" t="inlineStr"/>
+      <c r="C396" t="inlineStr"/>
+      <c r="D396" t="inlineStr"/>
+      <c r="E396" t="inlineStr"/>
+      <c r="F396" t="inlineStr"/>
       <c r="G396" t="inlineStr">
         <is>
           <t>BCIO:037000</t>
@@ -25929,13 +26917,23 @@
           <t>planned process</t>
         </is>
       </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M396" t="inlineStr"/>
+      <c r="N396" t="inlineStr"/>
+      <c r="O396" t="inlineStr"/>
     </row>
     <row r="397">
+      <c r="A397" t="inlineStr"/>
+      <c r="B397" t="inlineStr"/>
+      <c r="C397" t="inlineStr"/>
+      <c r="D397" t="inlineStr"/>
+      <c r="E397" t="inlineStr"/>
+      <c r="F397" t="inlineStr"/>
       <c r="G397" t="inlineStr">
         <is>
           <t>BCIO:023000</t>
@@ -25956,13 +26954,23 @@
           <t>evaluation finding</t>
         </is>
       </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M397" t="inlineStr"/>
+      <c r="N397" t="inlineStr"/>
+      <c r="O397" t="inlineStr"/>
     </row>
     <row r="398">
+      <c r="A398" t="inlineStr"/>
+      <c r="B398" t="inlineStr"/>
+      <c r="C398" t="inlineStr"/>
+      <c r="D398" t="inlineStr"/>
+      <c r="E398" t="inlineStr"/>
+      <c r="F398" t="inlineStr"/>
       <c r="G398" t="inlineStr">
         <is>
           <t>BCIO:038000</t>
@@ -25983,13 +26991,23 @@
           <t>research study</t>
         </is>
       </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M398" t="inlineStr"/>
+      <c r="N398" t="inlineStr"/>
+      <c r="O398" t="inlineStr"/>
     </row>
     <row r="399">
+      <c r="A399" t="inlineStr"/>
+      <c r="B399" t="inlineStr"/>
+      <c r="C399" t="inlineStr"/>
+      <c r="D399" t="inlineStr"/>
+      <c r="E399" t="inlineStr"/>
+      <c r="F399" t="inlineStr"/>
       <c r="G399" t="inlineStr">
         <is>
           <t>BCIO:015107</t>
@@ -26010,13 +27028,23 @@
           <t>biological sex</t>
         </is>
       </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M399" t="inlineStr"/>
+      <c r="N399" t="inlineStr"/>
+      <c r="O399" t="inlineStr"/>
     </row>
     <row r="400">
+      <c r="A400" t="inlineStr"/>
+      <c r="B400" t="inlineStr"/>
+      <c r="C400" t="inlineStr"/>
+      <c r="D400" t="inlineStr"/>
+      <c r="E400" t="inlineStr"/>
+      <c r="F400" t="inlineStr"/>
       <c r="G400" t="inlineStr">
         <is>
           <t>BFO:0000040</t>
@@ -26037,13 +27065,23 @@
           <t>independent continuant</t>
         </is>
       </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M400" t="inlineStr"/>
+      <c r="N400" t="inlineStr"/>
+      <c r="O400" t="inlineStr"/>
     </row>
     <row r="401">
+      <c r="A401" t="inlineStr"/>
+      <c r="B401" t="inlineStr"/>
+      <c r="C401" t="inlineStr"/>
+      <c r="D401" t="inlineStr"/>
+      <c r="E401" t="inlineStr"/>
+      <c r="F401" t="inlineStr"/>
       <c r="G401" t="inlineStr">
         <is>
           <t>MF:0000033</t>
@@ -26064,13 +27102,23 @@
           <t>bodily disposition</t>
         </is>
       </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M401" t="inlineStr"/>
+      <c r="N401" t="inlineStr"/>
+      <c r="O401" t="inlineStr"/>
     </row>
     <row r="402">
+      <c r="A402" t="inlineStr"/>
+      <c r="B402" t="inlineStr"/>
+      <c r="C402" t="inlineStr"/>
+      <c r="D402" t="inlineStr"/>
+      <c r="E402" t="inlineStr"/>
+      <c r="F402" t="inlineStr"/>
       <c r="G402" t="inlineStr">
         <is>
           <t>MF:0000020</t>
@@ -26091,13 +27139,23 @@
           <t>bodily process</t>
         </is>
       </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M402" t="inlineStr"/>
+      <c r="N402" t="inlineStr"/>
+      <c r="O402" t="inlineStr"/>
     </row>
     <row r="403">
+      <c r="A403" t="inlineStr"/>
+      <c r="B403" t="inlineStr"/>
+      <c r="C403" t="inlineStr"/>
+      <c r="D403" t="inlineStr"/>
+      <c r="E403" t="inlineStr"/>
+      <c r="F403" t="inlineStr"/>
       <c r="G403" t="inlineStr">
         <is>
           <t>GMHO:0000069</t>
@@ -26118,13 +27176,23 @@
           <t>psychotic disorder symptom</t>
         </is>
       </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M403" t="inlineStr"/>
+      <c r="N403" t="inlineStr"/>
+      <c r="O403" t="inlineStr"/>
     </row>
     <row r="404">
+      <c r="A404" t="inlineStr"/>
+      <c r="B404" t="inlineStr"/>
+      <c r="C404" t="inlineStr"/>
+      <c r="D404" t="inlineStr"/>
+      <c r="E404" t="inlineStr"/>
+      <c r="F404" t="inlineStr"/>
       <c r="G404" t="inlineStr">
         <is>
           <t>ADDICTO:0001258</t>
@@ -26145,13 +27213,23 @@
           <t>study design</t>
         </is>
       </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M404" t="inlineStr"/>
+      <c r="N404" t="inlineStr"/>
+      <c r="O404" t="inlineStr"/>
     </row>
     <row r="405">
+      <c r="A405" t="inlineStr"/>
+      <c r="B405" t="inlineStr"/>
+      <c r="C405" t="inlineStr"/>
+      <c r="D405" t="inlineStr"/>
+      <c r="E405" t="inlineStr"/>
+      <c r="F405" t="inlineStr"/>
       <c r="G405" t="inlineStr">
         <is>
           <t>BCIO:008515</t>
@@ -26172,13 +27250,23 @@
           <t>data item</t>
         </is>
       </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M405" t="inlineStr"/>
+      <c r="N405" t="inlineStr"/>
+      <c r="O405" t="inlineStr"/>
     </row>
     <row r="406">
+      <c r="A406" t="inlineStr"/>
+      <c r="B406" t="inlineStr"/>
+      <c r="C406" t="inlineStr"/>
+      <c r="D406" t="inlineStr"/>
+      <c r="E406" t="inlineStr"/>
+      <c r="F406" t="inlineStr"/>
       <c r="G406" t="inlineStr">
         <is>
           <t>GMHO:0000152</t>
@@ -26199,13 +27287,23 @@
           <t>data item</t>
         </is>
       </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M406" t="inlineStr"/>
+      <c r="N406" t="inlineStr"/>
+      <c r="O406" t="inlineStr"/>
     </row>
     <row r="407">
+      <c r="A407" t="inlineStr"/>
+      <c r="B407" t="inlineStr"/>
+      <c r="C407" t="inlineStr"/>
+      <c r="D407" t="inlineStr"/>
+      <c r="E407" t="inlineStr"/>
+      <c r="F407" t="inlineStr"/>
       <c r="G407" t="inlineStr">
         <is>
           <t>BFO:0000027</t>
@@ -26226,13 +27324,23 @@
           <t>material entity</t>
         </is>
       </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M407" t="inlineStr"/>
+      <c r="N407" t="inlineStr"/>
+      <c r="O407" t="inlineStr"/>
     </row>
     <row r="408">
+      <c r="A408" t="inlineStr"/>
+      <c r="B408" t="inlineStr"/>
+      <c r="C408" t="inlineStr"/>
+      <c r="D408" t="inlineStr"/>
+      <c r="E408" t="inlineStr"/>
+      <c r="F408" t="inlineStr"/>
       <c r="G408" t="inlineStr">
         <is>
           <t>BFO:0000038</t>
@@ -26253,18 +27361,27 @@
           <t>temporal region</t>
         </is>
       </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M408" t="inlineStr"/>
+      <c r="N408" t="inlineStr"/>
+      <c r="O408" t="inlineStr"/>
     </row>
     <row r="409">
+      <c r="A409" t="inlineStr"/>
+      <c r="B409" t="inlineStr"/>
       <c r="C409" t="inlineStr">
         <is>
           <t>pain</t>
         </is>
       </c>
+      <c r="D409" t="inlineStr"/>
+      <c r="E409" t="inlineStr"/>
+      <c r="F409" t="inlineStr"/>
       <c r="G409" t="inlineStr">
         <is>
           <t>GMHO:0000184</t>
@@ -26285,6 +27402,7 @@
           <t>adverse event following an intervention</t>
         </is>
       </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="inlineStr">
         <is>
           <t>structural</t>
@@ -26300,8 +27418,15 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O409" t="inlineStr"/>
     </row>
     <row r="410">
+      <c r="A410" t="inlineStr"/>
+      <c r="B410" t="inlineStr"/>
+      <c r="C410" t="inlineStr"/>
+      <c r="D410" t="inlineStr"/>
+      <c r="E410" t="inlineStr"/>
+      <c r="F410" t="inlineStr"/>
       <c r="G410" t="inlineStr">
         <is>
           <t>OGMS:0000061</t>
@@ -26322,13 +27447,23 @@
           <t>bodily process</t>
         </is>
       </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M410" t="inlineStr"/>
+      <c r="N410" t="inlineStr"/>
+      <c r="O410" t="inlineStr"/>
     </row>
     <row r="411">
+      <c r="A411" t="inlineStr"/>
+      <c r="B411" t="inlineStr"/>
+      <c r="C411" t="inlineStr"/>
+      <c r="D411" t="inlineStr"/>
+      <c r="E411" t="inlineStr"/>
+      <c r="F411" t="inlineStr"/>
       <c r="G411" t="inlineStr">
         <is>
           <t>BCIO:050300</t>
@@ -26349,13 +27484,23 @@
           <t>specifically dependent continuant</t>
         </is>
       </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M411" t="inlineStr"/>
+      <c r="N411" t="inlineStr"/>
+      <c r="O411" t="inlineStr"/>
     </row>
     <row r="412">
+      <c r="A412" t="inlineStr"/>
+      <c r="B412" t="inlineStr"/>
+      <c r="C412" t="inlineStr"/>
+      <c r="D412" t="inlineStr"/>
+      <c r="E412" t="inlineStr"/>
+      <c r="F412" t="inlineStr"/>
       <c r="G412" t="inlineStr">
         <is>
           <t>PATO:0001241</t>
@@ -26376,13 +27521,23 @@
           <t>quality</t>
         </is>
       </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M412" t="inlineStr"/>
+      <c r="N412" t="inlineStr"/>
+      <c r="O412" t="inlineStr"/>
     </row>
     <row r="413">
+      <c r="A413" t="inlineStr"/>
+      <c r="B413" t="inlineStr"/>
+      <c r="C413" t="inlineStr"/>
+      <c r="D413" t="inlineStr"/>
+      <c r="E413" t="inlineStr"/>
+      <c r="F413" t="inlineStr"/>
       <c r="G413" t="inlineStr">
         <is>
           <t>PATO:0001018</t>
@@ -26403,13 +27558,23 @@
           <t>physical object quality</t>
         </is>
       </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M413" t="inlineStr"/>
+      <c r="N413" t="inlineStr"/>
+      <c r="O413" t="inlineStr"/>
     </row>
     <row r="414">
+      <c r="A414" t="inlineStr"/>
+      <c r="B414" t="inlineStr"/>
+      <c r="C414" t="inlineStr"/>
+      <c r="D414" t="inlineStr"/>
+      <c r="E414" t="inlineStr"/>
+      <c r="F414" t="inlineStr"/>
       <c r="G414" t="inlineStr">
         <is>
           <t xml:space="preserve">IAO:0000104 </t>
@@ -26430,13 +27595,23 @@
           <t>directive information entity</t>
         </is>
       </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M414" t="inlineStr"/>
+      <c r="N414" t="inlineStr"/>
+      <c r="O414" t="inlineStr"/>
     </row>
     <row r="415">
+      <c r="A415" t="inlineStr"/>
+      <c r="B415" t="inlineStr"/>
+      <c r="C415" t="inlineStr"/>
+      <c r="D415" t="inlineStr"/>
+      <c r="E415" t="inlineStr"/>
+      <c r="F415" t="inlineStr"/>
       <c r="G415" t="inlineStr">
         <is>
           <t>OBI:0000011</t>
@@ -26457,13 +27632,23 @@
           <t>process</t>
         </is>
       </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M415" t="inlineStr"/>
+      <c r="N415" t="inlineStr"/>
+      <c r="O415" t="inlineStr"/>
     </row>
     <row r="416">
+      <c r="A416" t="inlineStr"/>
+      <c r="B416" t="inlineStr"/>
+      <c r="C416" t="inlineStr"/>
+      <c r="D416" t="inlineStr"/>
+      <c r="E416" t="inlineStr"/>
+      <c r="F416" t="inlineStr"/>
       <c r="G416" t="inlineStr">
         <is>
           <t>GMHO:0000077</t>
@@ -26484,13 +27669,23 @@
           <t>psychotic disorder symptom</t>
         </is>
       </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M416" t="inlineStr"/>
+      <c r="N416" t="inlineStr"/>
+      <c r="O416" t="inlineStr"/>
     </row>
     <row r="417">
+      <c r="A417" t="inlineStr"/>
+      <c r="B417" t="inlineStr"/>
+      <c r="C417" t="inlineStr"/>
+      <c r="D417" t="inlineStr"/>
+      <c r="E417" t="inlineStr"/>
+      <c r="F417" t="inlineStr"/>
       <c r="G417" t="inlineStr">
         <is>
           <t>GMHO:0000174</t>
@@ -26511,13 +27706,23 @@
           <t>symptom</t>
         </is>
       </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M417" t="inlineStr"/>
+      <c r="N417" t="inlineStr"/>
+      <c r="O417" t="inlineStr"/>
     </row>
     <row r="418">
+      <c r="A418" t="inlineStr"/>
+      <c r="B418" t="inlineStr"/>
+      <c r="C418" t="inlineStr"/>
+      <c r="D418" t="inlineStr"/>
+      <c r="E418" t="inlineStr"/>
+      <c r="F418" t="inlineStr"/>
       <c r="G418" t="inlineStr">
         <is>
           <t>BFO:0000015</t>
@@ -26538,13 +27743,23 @@
           <t>occurrent</t>
         </is>
       </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M418" t="inlineStr"/>
+      <c r="N418" t="inlineStr"/>
+      <c r="O418" t="inlineStr"/>
     </row>
     <row r="419">
+      <c r="A419" t="inlineStr"/>
+      <c r="B419" t="inlineStr"/>
+      <c r="C419" t="inlineStr"/>
+      <c r="D419" t="inlineStr"/>
+      <c r="E419" t="inlineStr"/>
+      <c r="F419" t="inlineStr"/>
       <c r="G419" t="inlineStr">
         <is>
           <t>GMHO:0000187</t>
@@ -26565,13 +27780,23 @@
           <t>diagnosis</t>
         </is>
       </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M419" t="inlineStr"/>
+      <c r="N419" t="inlineStr"/>
+      <c r="O419" t="inlineStr"/>
     </row>
     <row r="420">
+      <c r="A420" t="inlineStr"/>
+      <c r="B420" t="inlineStr"/>
+      <c r="C420" t="inlineStr"/>
+      <c r="D420" t="inlineStr"/>
+      <c r="E420" t="inlineStr"/>
+      <c r="F420" t="inlineStr"/>
       <c r="G420" t="inlineStr">
         <is>
           <t>GMHO:0000172</t>
@@ -26592,13 +27817,23 @@
           <t>symptom</t>
         </is>
       </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M420" t="inlineStr"/>
+      <c r="N420" t="inlineStr"/>
+      <c r="O420" t="inlineStr"/>
     </row>
     <row r="421">
+      <c r="A421" t="inlineStr"/>
+      <c r="B421" t="inlineStr"/>
+      <c r="C421" t="inlineStr"/>
+      <c r="D421" t="inlineStr"/>
+      <c r="E421" t="inlineStr"/>
+      <c r="F421" t="inlineStr"/>
       <c r="G421" t="inlineStr">
         <is>
           <t>OBI:0000071</t>
@@ -26619,13 +27854,23 @@
           <t>data item</t>
         </is>
       </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M421" t="inlineStr"/>
+      <c r="N421" t="inlineStr"/>
+      <c r="O421" t="inlineStr"/>
     </row>
     <row r="422">
+      <c r="A422" t="inlineStr"/>
+      <c r="B422" t="inlineStr"/>
+      <c r="C422" t="inlineStr"/>
+      <c r="D422" t="inlineStr"/>
+      <c r="E422" t="inlineStr"/>
+      <c r="F422" t="inlineStr"/>
       <c r="G422" t="inlineStr">
         <is>
           <t>STATO:0000184</t>
@@ -26646,13 +27891,23 @@
           <t>data item</t>
         </is>
       </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M422" t="inlineStr"/>
+      <c r="N422" t="inlineStr"/>
+      <c r="O422" t="inlineStr"/>
     </row>
     <row r="423">
+      <c r="A423" t="inlineStr"/>
+      <c r="B423" t="inlineStr"/>
+      <c r="C423" t="inlineStr"/>
+      <c r="D423" t="inlineStr"/>
+      <c r="E423" t="inlineStr"/>
+      <c r="F423" t="inlineStr"/>
       <c r="G423" t="inlineStr">
         <is>
           <t>SEPIO:0000125</t>
@@ -26673,13 +27928,23 @@
           <t>research activity</t>
         </is>
       </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M423" t="inlineStr"/>
+      <c r="N423" t="inlineStr"/>
+      <c r="O423" t="inlineStr"/>
     </row>
     <row r="424">
+      <c r="A424" t="inlineStr"/>
+      <c r="B424" t="inlineStr"/>
+      <c r="C424" t="inlineStr"/>
+      <c r="D424" t="inlineStr"/>
+      <c r="E424" t="inlineStr"/>
+      <c r="F424" t="inlineStr"/>
       <c r="G424" t="inlineStr">
         <is>
           <t>ADDICTO:0000399</t>
@@ -26700,13 +27965,23 @@
           <t>identity</t>
         </is>
       </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M424" t="inlineStr"/>
+      <c r="N424" t="inlineStr"/>
+      <c r="O424" t="inlineStr"/>
     </row>
     <row r="425">
+      <c r="A425" t="inlineStr"/>
+      <c r="B425" t="inlineStr"/>
+      <c r="C425" t="inlineStr"/>
+      <c r="D425" t="inlineStr"/>
+      <c r="E425" t="inlineStr"/>
+      <c r="F425" t="inlineStr"/>
       <c r="G425" t="inlineStr">
         <is>
           <t>BFO:0000020</t>
@@ -26727,13 +28002,23 @@
           <t>continuant</t>
         </is>
       </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M425" t="inlineStr"/>
+      <c r="N425" t="inlineStr"/>
+      <c r="O425" t="inlineStr"/>
     </row>
     <row r="426">
+      <c r="A426" t="inlineStr"/>
+      <c r="B426" t="inlineStr"/>
+      <c r="C426" t="inlineStr"/>
+      <c r="D426" t="inlineStr"/>
+      <c r="E426" t="inlineStr"/>
+      <c r="F426" t="inlineStr"/>
       <c r="G426" t="inlineStr">
         <is>
           <t>OPMI:0000326</t>
@@ -26744,18 +28029,29 @@
           <t>status</t>
         </is>
       </c>
+      <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr">
         <is>
           <t>realizable entity</t>
         </is>
       </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M426" t="inlineStr"/>
+      <c r="N426" t="inlineStr"/>
+      <c r="O426" t="inlineStr"/>
     </row>
     <row r="427">
+      <c r="A427" t="inlineStr"/>
+      <c r="B427" t="inlineStr"/>
+      <c r="C427" t="inlineStr"/>
+      <c r="D427" t="inlineStr"/>
+      <c r="E427" t="inlineStr"/>
+      <c r="F427" t="inlineStr"/>
       <c r="G427" t="inlineStr">
         <is>
           <t>GMHO:0000127</t>
@@ -26776,6 +28072,7 @@
           <t>information content entity</t>
         </is>
       </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="inlineStr">
         <is>
           <t>structural</t>
@@ -26791,8 +28088,15 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O427" t="inlineStr"/>
     </row>
     <row r="428">
+      <c r="A428" t="inlineStr"/>
+      <c r="B428" t="inlineStr"/>
+      <c r="C428" t="inlineStr"/>
+      <c r="D428" t="inlineStr"/>
+      <c r="E428" t="inlineStr"/>
+      <c r="F428" t="inlineStr"/>
       <c r="G428" t="inlineStr">
         <is>
           <t>OBI:0500000</t>
@@ -26813,6 +28117,7 @@
           <t>plan specification</t>
         </is>
       </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="inlineStr">
         <is>
           <t>structural</t>
@@ -26828,8 +28133,15 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O428" t="inlineStr"/>
     </row>
     <row r="429">
+      <c r="A429" t="inlineStr"/>
+      <c r="B429" t="inlineStr"/>
+      <c r="C429" t="inlineStr"/>
+      <c r="D429" t="inlineStr"/>
+      <c r="E429" t="inlineStr"/>
+      <c r="F429" t="inlineStr"/>
       <c r="G429" t="inlineStr">
         <is>
           <t>OGMS:0000020</t>
@@ -26850,13 +28162,23 @@
           <t>process</t>
         </is>
       </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M429" t="inlineStr"/>
+      <c r="N429" t="inlineStr"/>
+      <c r="O429" t="inlineStr"/>
     </row>
     <row r="430">
+      <c r="A430" t="inlineStr"/>
+      <c r="B430" t="inlineStr"/>
+      <c r="C430" t="inlineStr"/>
+      <c r="D430" t="inlineStr"/>
+      <c r="E430" t="inlineStr"/>
+      <c r="F430" t="inlineStr"/>
       <c r="G430" t="inlineStr">
         <is>
           <t>BFO:0000008</t>
@@ -26877,13 +28199,23 @@
           <t>occurrent</t>
         </is>
       </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M430" t="inlineStr"/>
+      <c r="N430" t="inlineStr"/>
+      <c r="O430" t="inlineStr"/>
     </row>
     <row r="431">
+      <c r="A431" t="inlineStr"/>
+      <c r="B431" t="inlineStr"/>
+      <c r="C431" t="inlineStr"/>
+      <c r="D431" t="inlineStr"/>
+      <c r="E431" t="inlineStr"/>
+      <c r="F431" t="inlineStr"/>
       <c r="G431" t="inlineStr">
         <is>
           <t>STATO:0000039</t>
@@ -26904,18 +28236,27 @@
           <t>data item</t>
         </is>
       </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M431" t="inlineStr"/>
+      <c r="N431" t="inlineStr"/>
+      <c r="O431" t="inlineStr"/>
     </row>
     <row r="432">
+      <c r="A432" t="inlineStr"/>
+      <c r="B432" t="inlineStr"/>
       <c r="C432" t="inlineStr">
         <is>
           <t>Measures</t>
         </is>
       </c>
+      <c r="D432" t="inlineStr"/>
+      <c r="E432" t="inlineStr"/>
+      <c r="F432" t="inlineStr"/>
       <c r="G432" t="inlineStr">
         <is>
           <t>IAO:0000109</t>
@@ -26936,13 +28277,23 @@
           <t>data item</t>
         </is>
       </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M432" t="inlineStr"/>
+      <c r="N432" t="inlineStr"/>
+      <c r="O432" t="inlineStr"/>
     </row>
     <row r="433">
+      <c r="A433" t="inlineStr"/>
+      <c r="B433" t="inlineStr"/>
+      <c r="C433" t="inlineStr"/>
+      <c r="D433" t="inlineStr"/>
+      <c r="E433" t="inlineStr"/>
+      <c r="F433" t="inlineStr"/>
       <c r="G433" t="inlineStr">
         <is>
           <t>OBCS:0000011</t>
@@ -26963,18 +28314,27 @@
           <t>information content entity</t>
         </is>
       </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M433" t="inlineStr"/>
+      <c r="N433" t="inlineStr"/>
+      <c r="O433" t="inlineStr"/>
     </row>
     <row r="434">
+      <c r="A434" t="inlineStr"/>
+      <c r="B434" t="inlineStr"/>
       <c r="C434" t="inlineStr">
         <is>
           <t>age</t>
         </is>
       </c>
+      <c r="D434" t="inlineStr"/>
+      <c r="E434" t="inlineStr"/>
+      <c r="F434" t="inlineStr"/>
       <c r="G434" t="inlineStr">
         <is>
           <t>BCIO:015415</t>
@@ -27005,8 +28365,17 @@
           <t>structural</t>
         </is>
       </c>
+      <c r="M434" t="inlineStr"/>
+      <c r="N434" t="inlineStr"/>
+      <c r="O434" t="inlineStr"/>
     </row>
     <row r="435">
+      <c r="A435" t="inlineStr"/>
+      <c r="B435" t="inlineStr"/>
+      <c r="C435" t="inlineStr"/>
+      <c r="D435" t="inlineStr"/>
+      <c r="E435" t="inlineStr"/>
+      <c r="F435" t="inlineStr"/>
       <c r="G435" t="inlineStr">
         <is>
           <t>IAO:0000300</t>
@@ -27027,13 +28396,23 @@
           <t>information content entity</t>
         </is>
       </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M435" t="inlineStr"/>
+      <c r="N435" t="inlineStr"/>
+      <c r="O435" t="inlineStr"/>
     </row>
     <row r="436">
+      <c r="A436" t="inlineStr"/>
+      <c r="B436" t="inlineStr"/>
+      <c r="C436" t="inlineStr"/>
+      <c r="D436" t="inlineStr"/>
+      <c r="E436" t="inlineStr"/>
+      <c r="F436" t="inlineStr"/>
       <c r="G436" t="inlineStr">
         <is>
           <t>STATO:0000471</t>
@@ -27054,13 +28433,21 @@
           <t>statistic</t>
         </is>
       </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M436" t="inlineStr"/>
+      <c r="N436" t="inlineStr"/>
+      <c r="O436" t="inlineStr"/>
     </row>
     <row r="437">
+      <c r="A437" t="inlineStr"/>
+      <c r="B437" t="inlineStr"/>
+      <c r="C437" t="inlineStr"/>
+      <c r="D437" t="inlineStr"/>
       <c r="E437" t="inlineStr">
         <is>
           <t>Study</t>
@@ -27111,8 +28498,13 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O437" t="inlineStr"/>
     </row>
     <row r="438">
+      <c r="A438" t="inlineStr"/>
+      <c r="B438" t="inlineStr"/>
+      <c r="C438" t="inlineStr"/>
+      <c r="D438" t="inlineStr"/>
       <c r="E438" t="inlineStr">
         <is>
           <t>Therapy</t>
@@ -27163,8 +28555,13 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O438" t="inlineStr"/>
     </row>
     <row r="439">
+      <c r="A439" t="inlineStr"/>
+      <c r="B439" t="inlineStr"/>
+      <c r="C439" t="inlineStr"/>
+      <c r="D439" t="inlineStr"/>
       <c r="E439" t="inlineStr">
         <is>
           <t>TAU</t>
@@ -27215,13 +28612,17 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O439" t="inlineStr"/>
     </row>
     <row r="440">
+      <c r="A440" t="inlineStr"/>
+      <c r="B440" t="inlineStr"/>
       <c r="C440" t="inlineStr">
         <is>
           <t>publication year</t>
         </is>
       </c>
+      <c r="D440" t="inlineStr"/>
       <c r="E440" t="inlineStr">
         <is>
           <t>year</t>
@@ -27272,13 +28673,17 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O440" t="inlineStr"/>
     </row>
     <row r="441">
+      <c r="A441" t="inlineStr"/>
+      <c r="B441" t="inlineStr"/>
       <c r="C441" t="inlineStr">
         <is>
           <t>mean age</t>
         </is>
       </c>
+      <c r="D441" t="inlineStr"/>
       <c r="E441" t="inlineStr">
         <is>
           <t>AGEm_arm</t>
@@ -27329,8 +28734,13 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O441" t="inlineStr"/>
     </row>
     <row r="442">
+      <c r="A442" t="inlineStr"/>
+      <c r="B442" t="inlineStr"/>
+      <c r="C442" t="inlineStr"/>
+      <c r="D442" t="inlineStr"/>
       <c r="E442" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -27381,8 +28791,13 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O442" t="inlineStr"/>
     </row>
     <row r="443">
+      <c r="A443" t="inlineStr"/>
+      <c r="B443" t="inlineStr"/>
+      <c r="C443" t="inlineStr"/>
+      <c r="D443" t="inlineStr"/>
       <c r="E443" t="inlineStr">
         <is>
           <t>Attention_control</t>
@@ -27433,8 +28848,13 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O443" t="inlineStr"/>
     </row>
     <row r="444">
+      <c r="A444" t="inlineStr"/>
+      <c r="B444" t="inlineStr"/>
+      <c r="C444" t="inlineStr"/>
+      <c r="D444" t="inlineStr"/>
       <c r="E444" t="inlineStr">
         <is>
           <t>intensity_EX</t>
@@ -27485,8 +28905,13 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O444" t="inlineStr"/>
     </row>
     <row r="445">
+      <c r="A445" t="inlineStr"/>
+      <c r="B445" t="inlineStr"/>
+      <c r="C445" t="inlineStr"/>
+      <c r="D445" t="inlineStr"/>
       <c r="E445" t="inlineStr">
         <is>
           <t>intervention_length</t>
@@ -27537,8 +28962,13 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O445" t="inlineStr"/>
     </row>
     <row r="446">
+      <c r="A446" t="inlineStr"/>
+      <c r="B446" t="inlineStr"/>
+      <c r="C446" t="inlineStr"/>
+      <c r="D446" t="inlineStr"/>
       <c r="E446" t="inlineStr">
         <is>
           <t>totN_random</t>
@@ -27589,8 +29019,13 @@
           <t>No combo</t>
         </is>
       </c>
+      <c r="O446" t="inlineStr"/>
     </row>
     <row r="447">
+      <c r="A447" t="inlineStr"/>
+      <c r="B447" t="inlineStr"/>
+      <c r="C447" t="inlineStr"/>
+      <c r="D447" t="inlineStr"/>
       <c r="E447" t="inlineStr">
         <is>
           <t>N_dropout</t>
@@ -27641,8 +29076,13 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O447" t="inlineStr"/>
     </row>
     <row r="448">
+      <c r="A448" t="inlineStr"/>
+      <c r="B448" t="inlineStr"/>
+      <c r="C448" t="inlineStr"/>
+      <c r="D448" t="inlineStr"/>
       <c r="E448" t="inlineStr">
         <is>
           <t>N_random</t>
@@ -27693,8 +29133,13 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O448" t="inlineStr"/>
     </row>
     <row r="449">
+      <c r="A449" t="inlineStr"/>
+      <c r="B449" t="inlineStr"/>
+      <c r="C449" t="inlineStr"/>
+      <c r="D449" t="inlineStr"/>
       <c r="E449" t="inlineStr">
         <is>
           <t>PTSD3_posttest_mean</t>
@@ -27752,6 +29197,10 @@
       </c>
     </row>
     <row r="450">
+      <c r="A450" t="inlineStr"/>
+      <c r="B450" t="inlineStr"/>
+      <c r="C450" t="inlineStr"/>
+      <c r="D450" t="inlineStr"/>
       <c r="E450" t="inlineStr">
         <is>
           <t>PTSD3_posttest_mean</t>
@@ -27802,13 +29251,17 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O450" t="inlineStr"/>
     </row>
     <row r="451">
+      <c r="A451" t="inlineStr"/>
+      <c r="B451" t="inlineStr"/>
       <c r="C451" t="inlineStr">
         <is>
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D451" t="inlineStr"/>
       <c r="E451" t="inlineStr">
         <is>
           <t>PTSD3_posttest_mean</t>
@@ -27866,6 +29319,10 @@
       </c>
     </row>
     <row r="452">
+      <c r="A452" t="inlineStr"/>
+      <c r="B452" t="inlineStr"/>
+      <c r="C452" t="inlineStr"/>
+      <c r="D452" t="inlineStr"/>
       <c r="E452" t="inlineStr">
         <is>
           <t>PTSD3_posttest_n</t>
@@ -27923,6 +29380,10 @@
       </c>
     </row>
     <row r="453">
+      <c r="A453" t="inlineStr"/>
+      <c r="B453" t="inlineStr"/>
+      <c r="C453" t="inlineStr"/>
+      <c r="D453" t="inlineStr"/>
       <c r="E453" t="inlineStr">
         <is>
           <t>PTSD3_posttest_n</t>
@@ -27973,13 +29434,17 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O453" t="inlineStr"/>
     </row>
     <row r="454">
+      <c r="A454" t="inlineStr"/>
+      <c r="B454" t="inlineStr"/>
       <c r="C454" t="inlineStr">
         <is>
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D454" t="inlineStr"/>
       <c r="E454" t="inlineStr">
         <is>
           <t>PTSD3_posttest_n</t>
@@ -28037,6 +29502,10 @@
       </c>
     </row>
     <row r="455">
+      <c r="A455" t="inlineStr"/>
+      <c r="B455" t="inlineStr"/>
+      <c r="C455" t="inlineStr"/>
+      <c r="D455" t="inlineStr"/>
       <c r="E455" t="inlineStr">
         <is>
           <t>PTSD3_posttest_sd</t>
@@ -28094,6 +29563,10 @@
       </c>
     </row>
     <row r="456">
+      <c r="A456" t="inlineStr"/>
+      <c r="B456" t="inlineStr"/>
+      <c r="C456" t="inlineStr"/>
+      <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr">
         <is>
           <t>PTSD3_posttest_sd</t>
@@ -28144,13 +29617,17 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O456" t="inlineStr"/>
     </row>
     <row r="457">
+      <c r="A457" t="inlineStr"/>
+      <c r="B457" t="inlineStr"/>
       <c r="C457" t="inlineStr">
         <is>
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr">
         <is>
           <t>PTSD3_posttest_sd</t>
@@ -28208,6 +29685,10 @@
       </c>
     </row>
     <row r="458">
+      <c r="A458" t="inlineStr"/>
+      <c r="B458" t="inlineStr"/>
+      <c r="C458" t="inlineStr"/>
+      <c r="D458" t="inlineStr"/>
       <c r="E458" t="inlineStr">
         <is>
           <t>RoB_PTSD_severity</t>
@@ -28258,8 +29739,15 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O458" t="inlineStr"/>
     </row>
     <row r="459">
+      <c r="A459" t="inlineStr"/>
+      <c r="B459" t="inlineStr"/>
+      <c r="C459" t="inlineStr"/>
+      <c r="D459" t="inlineStr"/>
+      <c r="E459" t="inlineStr"/>
+      <c r="F459" t="inlineStr"/>
       <c r="G459" t="inlineStr">
         <is>
           <t>GMHO:0000125</t>
@@ -28290,8 +29778,17 @@
           <t>structural</t>
         </is>
       </c>
+      <c r="M459" t="inlineStr"/>
+      <c r="N459" t="inlineStr"/>
+      <c r="O459" t="inlineStr"/>
     </row>
     <row r="460">
+      <c r="A460" t="inlineStr"/>
+      <c r="B460" t="inlineStr"/>
+      <c r="C460" t="inlineStr"/>
+      <c r="D460" t="inlineStr"/>
+      <c r="E460" t="inlineStr"/>
+      <c r="F460" t="inlineStr"/>
       <c r="G460" t="inlineStr">
         <is>
           <t>BCIO:041000</t>
@@ -28312,11 +29809,15 @@
           <t>object aggregate</t>
         </is>
       </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M460" t="inlineStr"/>
+      <c r="N460" t="inlineStr"/>
+      <c r="O460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -28334,6 +29835,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr">
         <is>
           <t>cognition_change_endpoint</t>
@@ -28406,6 +29908,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D462" t="inlineStr"/>
       <c r="E462" t="inlineStr">
         <is>
           <t>depression_change_endpoint</t>
@@ -28468,6 +29971,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B463" t="inlineStr"/>
       <c r="C463" t="inlineStr">
         <is>
           <t>post-intervention</t>
@@ -28540,6 +30044,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B464" t="inlineStr"/>
       <c r="C464" t="inlineStr">
         <is>
           <t>post-intervention</t>
@@ -28622,6 +30127,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D465" t="inlineStr"/>
       <c r="E465" t="inlineStr">
         <is>
           <t>functioning_change_endpoint</t>
@@ -28684,6 +30190,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B466" t="inlineStr"/>
       <c r="C466" t="inlineStr">
         <is>
           <t>post-intervention</t>
@@ -28756,6 +30263,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B467" t="inlineStr"/>
       <c r="C467" t="inlineStr">
         <is>
           <t>post-intervention</t>
@@ -28828,6 +30336,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B468" t="inlineStr"/>
       <c r="C468" t="inlineStr">
         <is>
           <t>post-intervention</t>
@@ -28910,6 +30419,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D469" t="inlineStr"/>
       <c r="E469" t="inlineStr">
         <is>
           <t>negative_change_endpoint</t>
@@ -28982,6 +30492,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D470" t="inlineStr"/>
       <c r="E470" t="inlineStr">
         <is>
           <t>overall_change_endpoint</t>
@@ -29054,6 +30565,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D471" t="inlineStr"/>
       <c r="E471" t="inlineStr">
         <is>
           <t>positive_change_endpoint</t>
@@ -29126,6 +30638,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D472" t="inlineStr"/>
       <c r="E472" t="inlineStr">
         <is>
           <t>prolactin_change_endpoint</t>
@@ -29188,6 +30701,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B473" t="inlineStr"/>
       <c r="C473" t="inlineStr">
         <is>
           <t>post-intervention</t>
@@ -29270,6 +30784,7 @@
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D474" t="inlineStr"/>
       <c r="E474" t="inlineStr">
         <is>
           <t>weight_change_endpoint</t>
@@ -29332,6 +30847,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B475" t="inlineStr"/>
       <c r="C475" t="inlineStr">
         <is>
           <t>post-intervention</t>
@@ -29399,11 +30915,16 @@
       </c>
     </row>
     <row r="476">
+      <c r="A476" t="inlineStr"/>
+      <c r="B476" t="inlineStr"/>
       <c r="C476" t="inlineStr">
         <is>
           <t>digestive system adverse event</t>
         </is>
       </c>
+      <c r="D476" t="inlineStr"/>
+      <c r="E476" t="inlineStr"/>
+      <c r="F476" t="inlineStr"/>
       <c r="G476" t="inlineStr">
         <is>
           <t>GMHO:0000178</t>
@@ -29444,8 +30965,15 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O476" t="inlineStr"/>
     </row>
     <row r="477">
+      <c r="A477" t="inlineStr"/>
+      <c r="B477" t="inlineStr"/>
+      <c r="C477" t="inlineStr"/>
+      <c r="D477" t="inlineStr"/>
+      <c r="E477" t="inlineStr"/>
+      <c r="F477" t="inlineStr"/>
       <c r="G477" t="inlineStr">
         <is>
           <t>GMHO:0000038</t>
@@ -29486,8 +31014,15 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O477" t="inlineStr"/>
     </row>
     <row r="478">
+      <c r="A478" t="inlineStr"/>
+      <c r="B478" t="inlineStr"/>
+      <c r="C478" t="inlineStr"/>
+      <c r="D478" t="inlineStr"/>
+      <c r="E478" t="inlineStr"/>
+      <c r="F478" t="inlineStr"/>
       <c r="G478" t="inlineStr">
         <is>
           <t>GMHO:0000242</t>
@@ -29528,8 +31063,15 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O478" t="inlineStr"/>
     </row>
     <row r="479">
+      <c r="A479" t="inlineStr"/>
+      <c r="B479" t="inlineStr"/>
+      <c r="C479" t="inlineStr"/>
+      <c r="D479" t="inlineStr"/>
+      <c r="E479" t="inlineStr"/>
+      <c r="F479" t="inlineStr"/>
       <c r="G479" t="inlineStr">
         <is>
           <t>GMHO:0000247</t>
@@ -29570,8 +31112,15 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O479" t="inlineStr"/>
     </row>
     <row r="480">
+      <c r="A480" t="inlineStr"/>
+      <c r="B480" t="inlineStr"/>
+      <c r="C480" t="inlineStr"/>
+      <c r="D480" t="inlineStr"/>
+      <c r="E480" t="inlineStr"/>
+      <c r="F480" t="inlineStr"/>
       <c r="G480" t="inlineStr">
         <is>
           <t>GMHO:0000245</t>
@@ -29612,8 +31161,15 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O480" t="inlineStr"/>
     </row>
     <row r="481">
+      <c r="A481" t="inlineStr"/>
+      <c r="B481" t="inlineStr"/>
+      <c r="C481" t="inlineStr"/>
+      <c r="D481" t="inlineStr"/>
+      <c r="E481" t="inlineStr"/>
+      <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr">
         <is>
           <t>GMHO:0000244</t>
@@ -29654,8 +31210,15 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O481" t="inlineStr"/>
     </row>
     <row r="482">
+      <c r="A482" t="inlineStr"/>
+      <c r="B482" t="inlineStr"/>
+      <c r="C482" t="inlineStr"/>
+      <c r="D482" t="inlineStr"/>
+      <c r="E482" t="inlineStr"/>
+      <c r="F482" t="inlineStr"/>
       <c r="G482" t="inlineStr">
         <is>
           <t>GMHO:0000246</t>
@@ -29696,8 +31259,15 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O482" t="inlineStr"/>
     </row>
     <row r="483">
+      <c r="A483" t="inlineStr"/>
+      <c r="B483" t="inlineStr"/>
+      <c r="C483" t="inlineStr"/>
+      <c r="D483" t="inlineStr"/>
+      <c r="E483" t="inlineStr"/>
+      <c r="F483" t="inlineStr"/>
       <c r="G483" t="inlineStr">
         <is>
           <t>BCIO:045000</t>
@@ -29738,8 +31308,15 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O483" t="inlineStr"/>
     </row>
     <row r="484">
+      <c r="A484" t="inlineStr"/>
+      <c r="B484" t="inlineStr"/>
+      <c r="C484" t="inlineStr"/>
+      <c r="D484" t="inlineStr"/>
+      <c r="E484" t="inlineStr"/>
+      <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr">
         <is>
           <t>MF:0000041</t>
@@ -29760,6 +31337,7 @@
           <t>mental disposition</t>
         </is>
       </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="inlineStr">
         <is>
           <t>structural</t>
@@ -29775,6 +31353,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -29782,6 +31361,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B485" t="inlineStr"/>
+      <c r="C485" t="inlineStr"/>
       <c r="D485" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -29837,6 +31418,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -29844,6 +31426,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B486" t="inlineStr"/>
+      <c r="C486" t="inlineStr"/>
       <c r="D486" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -29899,6 +31483,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -29906,6 +31491,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B487" t="inlineStr"/>
+      <c r="C487" t="inlineStr"/>
       <c r="D487" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -29961,6 +31548,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -29968,6 +31556,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B488" t="inlineStr"/>
+      <c r="C488" t="inlineStr"/>
       <c r="D488" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -30023,6 +31613,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -30030,6 +31621,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B489" t="inlineStr"/>
+      <c r="C489" t="inlineStr"/>
       <c r="D489" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -30085,6 +31678,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -30092,6 +31686,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B490" t="inlineStr"/>
+      <c r="C490" t="inlineStr"/>
       <c r="D490" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -30147,6 +31743,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -30154,6 +31751,8 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B491" t="inlineStr"/>
+      <c r="C491" t="inlineStr"/>
       <c r="D491" t="inlineStr">
         <is>
           <t>Outcomes</t>
@@ -30209,6 +31808,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -30216,6 +31816,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B492" t="inlineStr"/>
       <c r="C492" t="inlineStr">
         <is>
           <t>planned</t>
@@ -30288,6 +31889,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B493" t="inlineStr"/>
       <c r="C493" t="inlineStr">
         <is>
           <t>planned</t>
@@ -30360,6 +31962,8 @@
           <t>LSR3_taar1_H/data/data_2024-01-22_LSR3_H.xlsx</t>
         </is>
       </c>
+      <c r="B494" t="inlineStr"/>
+      <c r="C494" t="inlineStr"/>
       <c r="D494" t="inlineStr">
         <is>
           <t>Population</t>
@@ -30415,6 +32019,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -30422,6 +32027,8 @@
           <t>LSR3_taar1_H/data/data_2024-01-22_LSR3_H.xlsx</t>
         </is>
       </c>
+      <c r="B495" t="inlineStr"/>
+      <c r="C495" t="inlineStr"/>
       <c r="D495" t="inlineStr">
         <is>
           <t>Population</t>
@@ -30477,6 +32084,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -30484,6 +32092,8 @@
           <t>LSR3_taar1_H/data/data_2024-01-22_LSR3_H.xlsx</t>
         </is>
       </c>
+      <c r="B496" t="inlineStr"/>
+      <c r="C496" t="inlineStr"/>
       <c r="D496" t="inlineStr">
         <is>
           <t>Population</t>
@@ -30539,6 +32149,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -30546,6 +32157,8 @@
           <t>LSR3_taar1_H/data/data_2024-01-22_LSR3_H.xlsx</t>
         </is>
       </c>
+      <c r="B497" t="inlineStr"/>
+      <c r="C497" t="inlineStr"/>
       <c r="D497" t="inlineStr">
         <is>
           <t>Population</t>
@@ -30601,6 +32214,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -30608,6 +32222,8 @@
           <t>LSR3_taar1_H/data/data_2024-01-22_LSR3_H.xlsx</t>
         </is>
       </c>
+      <c r="B498" t="inlineStr"/>
+      <c r="C498" t="inlineStr"/>
       <c r="D498" t="inlineStr">
         <is>
           <t>Population</t>
@@ -30663,6 +32279,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -30670,6 +32287,8 @@
           <t>LSR3_taar1_H/data/data_2024-01-22_LSR3_H.xlsxdata/data_2024-01-22_LSR3_H.xlsx</t>
         </is>
       </c>
+      <c r="B499" t="inlineStr"/>
+      <c r="C499" t="inlineStr"/>
       <c r="D499" t="inlineStr">
         <is>
           <t>Population</t>
@@ -30725,6 +32344,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -30732,6 +32352,8 @@
           <t>LSR3_taar1_H/data/data_2024-01-22_LSR3_H.xlsxdata/data_2024-01-22_LSR3_H.xlsx</t>
         </is>
       </c>
+      <c r="B500" t="inlineStr"/>
+      <c r="C500" t="inlineStr"/>
       <c r="D500" t="inlineStr">
         <is>
           <t>Population</t>
@@ -30787,6 +32409,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -30794,6 +32417,7 @@
           <t>LSR3_taar1_H/data/data_2024-01-22_LSR3_H.xlsx</t>
         </is>
       </c>
+      <c r="B501" t="inlineStr"/>
       <c r="C501" t="inlineStr">
         <is>
           <t>baseline</t>
@@ -30866,6 +32490,8 @@
           <t>LSR3_taar1_H/data/data_2024-01-22_LSR3_H.xlsx</t>
         </is>
       </c>
+      <c r="B502" t="inlineStr"/>
+      <c r="C502" t="inlineStr"/>
       <c r="D502" t="inlineStr">
         <is>
           <t>Population</t>
@@ -30933,6 +32559,7 @@
           <t>LSR3_taar1_H/data/data_2024-01-22_LSR3_H.xlsx</t>
         </is>
       </c>
+      <c r="B503" t="inlineStr"/>
       <c r="C503" t="inlineStr">
         <is>
           <t>baseline</t>
@@ -31005,6 +32632,8 @@
           <t>LSR3_taar1_H/data/data_2024-01-22_LSR3_H.xlsx</t>
         </is>
       </c>
+      <c r="B504" t="inlineStr"/>
+      <c r="C504" t="inlineStr"/>
       <c r="D504" t="inlineStr">
         <is>
           <t>Population</t>
@@ -31072,6 +32701,7 @@
           <t>LSR3_taar1_H/data/data_2024-01-22_LSR3_H.xlsx</t>
         </is>
       </c>
+      <c r="B505" t="inlineStr"/>
       <c r="C505" t="inlineStr">
         <is>
           <t>baseline</t>
@@ -31144,6 +32774,8 @@
           <t>LSR3_taar1_H/data/data_2024-01-22_LSR3_H.xlsx</t>
         </is>
       </c>
+      <c r="B506" t="inlineStr"/>
+      <c r="C506" t="inlineStr"/>
       <c r="D506" t="inlineStr">
         <is>
           <t>Population</t>
@@ -31211,6 +32843,7 @@
           <t>LSR3_taar1_H/data/data_2024-01-22_LSR3_H.xlsx</t>
         </is>
       </c>
+      <c r="B507" t="inlineStr"/>
       <c r="C507" t="inlineStr">
         <is>
           <t>baseline</t>
@@ -31283,6 +32916,8 @@
           <t>LSR3_taar1_H/data/data_2024-01-22_LSR3_H.xlsx</t>
         </is>
       </c>
+      <c r="B508" t="inlineStr"/>
+      <c r="C508" t="inlineStr"/>
       <c r="D508" t="inlineStr">
         <is>
           <t>Population</t>
@@ -31350,6 +32985,7 @@
           <t>LSR3_taar1_H/data/data_2024-01-22_LSR3_H.xlsx</t>
         </is>
       </c>
+      <c r="B509" t="inlineStr"/>
       <c r="C509" t="inlineStr">
         <is>
           <t>baseline</t>
@@ -31422,6 +33058,8 @@
           <t>LSR3_taar1_H/data/data_2024-01-22_LSR3_H.xlsx</t>
         </is>
       </c>
+      <c r="B510" t="inlineStr"/>
+      <c r="C510" t="inlineStr"/>
       <c r="D510" t="inlineStr">
         <is>
           <t>Population</t>
@@ -31489,6 +33127,7 @@
           <t>LSR3_taar1_H/data/data_2024-01-22_LSR3_H.xlsxdata/data_2024-01-22_LSR3_H.xlsx</t>
         </is>
       </c>
+      <c r="B511" t="inlineStr"/>
       <c r="C511" t="inlineStr">
         <is>
           <t>baseline</t>
@@ -31561,6 +33200,8 @@
           <t>LSR3_taar1_H/data/data_2024-01-22_LSR3_H.xlsxdata/data_2024-01-22_LSR3_H.xlsx</t>
         </is>
       </c>
+      <c r="B512" t="inlineStr"/>
+      <c r="C512" t="inlineStr"/>
       <c r="D512" t="inlineStr">
         <is>
           <t>Population</t>
@@ -31628,6 +33269,7 @@
           <t>LSR3_taar1_H/data/data_2024-01-22_LSR3_H.xlsxdata/data_2024-01-22_LSR3_H.xlsx</t>
         </is>
       </c>
+      <c r="B513" t="inlineStr"/>
       <c r="C513" t="inlineStr">
         <is>
           <t>baseline</t>
@@ -31700,6 +33342,8 @@
           <t>LSR3_taar1_H/data/data_2024-01-22_LSR3_H.xlsxdata/data_2024-01-22_LSR3_H.xlsx</t>
         </is>
       </c>
+      <c r="B514" t="inlineStr"/>
+      <c r="C514" t="inlineStr"/>
       <c r="D514" t="inlineStr">
         <is>
           <t>Population</t>
@@ -31767,6 +33411,9 @@
           <t>LSR3_taar1_H/data/data_2024-01-22_LSR3_H.xlsxdata/data_2024-01-22_LSR3_H.xlsx</t>
         </is>
       </c>
+      <c r="B515" t="inlineStr"/>
+      <c r="C515" t="inlineStr"/>
+      <c r="D515" t="inlineStr"/>
       <c r="E515" t="inlineStr">
         <is>
           <t>study_doi</t>
@@ -31817,6 +33464,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -31824,11 +33472,13 @@
           <t>LSR3_taar1_H/data/data_2024-01-22_LSR3_H.xlsxdata/data_2024-01-22_LSR3_H.xlsx</t>
         </is>
       </c>
+      <c r="B516" t="inlineStr"/>
       <c r="C516" t="inlineStr">
         <is>
           <t>publication year</t>
         </is>
       </c>
+      <c r="D516" t="inlineStr"/>
       <c r="E516" t="inlineStr">
         <is>
           <t>study_year</t>
@@ -31879,6 +33529,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -31886,6 +33537,9 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B517" t="inlineStr"/>
+      <c r="C517" t="inlineStr"/>
+      <c r="D517" t="inlineStr"/>
       <c r="E517" t="inlineStr">
         <is>
           <t>tx_duration_unit</t>
@@ -31936,8 +33590,13 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O517" t="inlineStr"/>
     </row>
     <row r="518">
+      <c r="A518" t="inlineStr"/>
+      <c r="B518" t="inlineStr"/>
+      <c r="C518" t="inlineStr"/>
+      <c r="D518" t="inlineStr"/>
       <c r="E518" t="inlineStr">
         <is>
           <t>intervention_length_units</t>
@@ -31988,6 +33647,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -31995,6 +33655,9 @@
           <t>LSR3_taar1_H/data/data_2024-01-22_LSR3_H.xlsxdata/data_2024-01-22_LSR3_H.xlsx</t>
         </is>
       </c>
+      <c r="B519" t="inlineStr"/>
+      <c r="C519" t="inlineStr"/>
+      <c r="D519" t="inlineStr"/>
       <c r="E519" t="inlineStr">
         <is>
           <t>duration_unit</t>
@@ -32045,6 +33708,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -32052,11 +33716,13 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B520" t="inlineStr"/>
       <c r="C520" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
       </c>
+      <c r="D520" t="inlineStr"/>
       <c r="E520" t="inlineStr">
         <is>
           <t>tx_duration_unit</t>
@@ -32107,13 +33773,17 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O520" t="inlineStr"/>
     </row>
     <row r="521">
+      <c r="A521" t="inlineStr"/>
+      <c r="B521" t="inlineStr"/>
       <c r="C521" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
       </c>
+      <c r="D521" t="inlineStr"/>
       <c r="E521" t="inlineStr">
         <is>
           <t>intervention_length_units</t>
@@ -32164,6 +33834,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -32171,11 +33842,13 @@
           <t>LSR3_taar1_H/data/data_2024-01-22_LSR3_H.xlsxdata/data_2024-01-22_LSR3_H.xlsx</t>
         </is>
       </c>
+      <c r="B522" t="inlineStr"/>
       <c r="C522" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
       </c>
+      <c r="D522" t="inlineStr"/>
       <c r="E522" t="inlineStr">
         <is>
           <t>duration_unit</t>
@@ -32226,6 +33899,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -32233,11 +33907,13 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B523" t="inlineStr"/>
       <c r="C523" t="inlineStr">
         <is>
           <t>nausea</t>
         </is>
       </c>
+      <c r="D523" t="inlineStr"/>
       <c r="E523" t="inlineStr">
         <is>
           <t xml:space="preserve">nausea_n  </t>
@@ -32300,6 +33976,9 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B524" t="inlineStr"/>
+      <c r="C524" t="inlineStr"/>
+      <c r="D524" t="inlineStr"/>
       <c r="E524" t="inlineStr">
         <is>
           <t xml:space="preserve">nausea_n  </t>
@@ -32350,6 +34029,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -32357,11 +34037,13 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B525" t="inlineStr"/>
       <c r="C525" t="inlineStr">
         <is>
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D525" t="inlineStr"/>
       <c r="E525" t="inlineStr">
         <is>
           <t xml:space="preserve">nausea_n  </t>
@@ -32424,11 +34106,13 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B526" t="inlineStr"/>
       <c r="C526" t="inlineStr">
         <is>
           <t>headache</t>
         </is>
       </c>
+      <c r="D526" t="inlineStr"/>
       <c r="E526" t="inlineStr">
         <is>
           <t>headache_n</t>
@@ -32491,6 +34175,9 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B527" t="inlineStr"/>
+      <c r="C527" t="inlineStr"/>
+      <c r="D527" t="inlineStr"/>
       <c r="E527" t="inlineStr">
         <is>
           <t>headache_n</t>
@@ -32541,6 +34228,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -32548,11 +34236,13 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B528" t="inlineStr"/>
       <c r="C528" t="inlineStr">
         <is>
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D528" t="inlineStr"/>
       <c r="E528" t="inlineStr">
         <is>
           <t>headache_n</t>
@@ -32615,11 +34305,13 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B529" t="inlineStr"/>
       <c r="C529" t="inlineStr">
         <is>
           <t>insomnia</t>
         </is>
       </c>
+      <c r="D529" t="inlineStr"/>
       <c r="E529" t="inlineStr">
         <is>
           <t>insomnia_n</t>
@@ -32682,6 +34374,9 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B530" t="inlineStr"/>
+      <c r="C530" t="inlineStr"/>
+      <c r="D530" t="inlineStr"/>
       <c r="E530" t="inlineStr">
         <is>
           <t>insomnia_n</t>
@@ -32732,6 +34427,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -32739,11 +34435,13 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B531" t="inlineStr"/>
       <c r="C531" t="inlineStr">
         <is>
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D531" t="inlineStr"/>
       <c r="E531" t="inlineStr">
         <is>
           <t>insomnia_n</t>
@@ -32806,11 +34504,13 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B532" t="inlineStr"/>
       <c r="C532" t="inlineStr">
         <is>
           <t>dry mouth</t>
         </is>
       </c>
+      <c r="D532" t="inlineStr"/>
       <c r="E532" t="inlineStr">
         <is>
           <t>dry_mouth_n</t>
@@ -32873,6 +34573,9 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B533" t="inlineStr"/>
+      <c r="C533" t="inlineStr"/>
+      <c r="D533" t="inlineStr"/>
       <c r="E533" t="inlineStr">
         <is>
           <t>dry_mouth_n</t>
@@ -32923,6 +34626,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -32930,11 +34634,13 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B534" t="inlineStr"/>
       <c r="C534" t="inlineStr">
         <is>
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D534" t="inlineStr"/>
       <c r="E534" t="inlineStr">
         <is>
           <t>dry_mouth_n</t>
@@ -32997,11 +34703,13 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B535" t="inlineStr"/>
       <c r="C535" t="inlineStr">
         <is>
           <t>constipation</t>
         </is>
       </c>
+      <c r="D535" t="inlineStr"/>
       <c r="E535" t="inlineStr">
         <is>
           <t>constipation_n</t>
@@ -33064,6 +34772,9 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B536" t="inlineStr"/>
+      <c r="C536" t="inlineStr"/>
+      <c r="D536" t="inlineStr"/>
       <c r="E536" t="inlineStr">
         <is>
           <t>constipation_n</t>
@@ -33114,6 +34825,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -33121,11 +34833,13 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B537" t="inlineStr"/>
       <c r="C537" t="inlineStr">
         <is>
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D537" t="inlineStr"/>
       <c r="E537" t="inlineStr">
         <is>
           <t>constipation_n</t>
@@ -33188,11 +34902,13 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B538" t="inlineStr"/>
       <c r="C538" t="inlineStr">
         <is>
           <t>dizziness</t>
         </is>
       </c>
+      <c r="D538" t="inlineStr"/>
       <c r="E538" t="inlineStr">
         <is>
           <t>dizziness_n</t>
@@ -33255,6 +34971,9 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B539" t="inlineStr"/>
+      <c r="C539" t="inlineStr"/>
+      <c r="D539" t="inlineStr"/>
       <c r="E539" t="inlineStr">
         <is>
           <t>dizziness_n</t>
@@ -33305,6 +35024,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O539" t="inlineStr"/>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -33312,11 +35032,13 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B540" t="inlineStr"/>
       <c r="C540" t="inlineStr">
         <is>
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D540" t="inlineStr"/>
       <c r="E540" t="inlineStr">
         <is>
           <t>dizziness_n</t>
@@ -33379,11 +35101,13 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B541" t="inlineStr"/>
       <c r="C541" t="inlineStr">
         <is>
           <t>vomiting</t>
         </is>
       </c>
+      <c r="D541" t="inlineStr"/>
       <c r="E541" t="inlineStr">
         <is>
           <t>vomiting_n</t>
@@ -33446,6 +35170,9 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B542" t="inlineStr"/>
+      <c r="C542" t="inlineStr"/>
+      <c r="D542" t="inlineStr"/>
       <c r="E542" t="inlineStr">
         <is>
           <t>vomiting_n</t>
@@ -33496,6 +35223,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O542" t="inlineStr"/>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -33503,11 +35231,13 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B543" t="inlineStr"/>
       <c r="C543" t="inlineStr">
         <is>
           <t>post-intervention</t>
         </is>
       </c>
+      <c r="D543" t="inlineStr"/>
       <c r="E543" t="inlineStr">
         <is>
           <t>vomiting_n</t>
@@ -33570,6 +35300,9 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B544" t="inlineStr"/>
+      <c r="C544" t="inlineStr"/>
+      <c r="D544" t="inlineStr"/>
       <c r="E544" t="inlineStr">
         <is>
           <t>DOI_or_URL</t>
@@ -33620,8 +35353,13 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O544" t="inlineStr"/>
     </row>
     <row r="545">
+      <c r="A545" t="inlineStr"/>
+      <c r="B545" t="inlineStr"/>
+      <c r="C545" t="inlineStr"/>
+      <c r="D545" t="inlineStr"/>
       <c r="E545" t="inlineStr">
         <is>
           <t>arm</t>
@@ -33672,13 +35410,17 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O545" t="inlineStr"/>
     </row>
     <row r="546">
+      <c r="A546" t="inlineStr"/>
+      <c r="B546" t="inlineStr"/>
       <c r="C546" t="inlineStr">
         <is>
           <t>number of females (sex)</t>
         </is>
       </c>
+      <c r="D546" t="inlineStr"/>
       <c r="E546" t="inlineStr">
         <is>
           <t>female_n</t>
@@ -33729,8 +35471,13 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O546" t="inlineStr"/>
     </row>
     <row r="547">
+      <c r="A547" t="inlineStr"/>
+      <c r="B547" t="inlineStr"/>
+      <c r="C547" t="inlineStr"/>
+      <c r="D547" t="inlineStr"/>
       <c r="E547" t="inlineStr">
         <is>
           <t>PTSD3_questionnaire_type</t>
@@ -33781,8 +35528,13 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O547" t="inlineStr"/>
     </row>
     <row r="548">
+      <c r="A548" t="inlineStr"/>
+      <c r="B548" t="inlineStr"/>
+      <c r="C548" t="inlineStr"/>
+      <c r="D548" t="inlineStr"/>
       <c r="E548" t="inlineStr">
         <is>
           <t>DOI</t>
@@ -33833,8 +35585,13 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O548" t="inlineStr"/>
     </row>
     <row r="549">
+      <c r="A549" t="inlineStr"/>
+      <c r="B549" t="inlineStr"/>
+      <c r="C549" t="inlineStr"/>
+      <c r="D549" t="inlineStr"/>
       <c r="E549" t="inlineStr">
         <is>
           <t>PTSD3_baseline_n</t>
@@ -33892,11 +35649,14 @@
       </c>
     </row>
     <row r="550">
+      <c r="A550" t="inlineStr"/>
+      <c r="B550" t="inlineStr"/>
       <c r="C550" t="inlineStr">
         <is>
           <t>baseline</t>
         </is>
       </c>
+      <c r="D550" t="inlineStr"/>
       <c r="E550" t="inlineStr">
         <is>
           <t>PTSD3_baseline_n</t>
@@ -33954,6 +35714,10 @@
       </c>
     </row>
     <row r="551">
+      <c r="A551" t="inlineStr"/>
+      <c r="B551" t="inlineStr"/>
+      <c r="C551" t="inlineStr"/>
+      <c r="D551" t="inlineStr"/>
       <c r="E551" t="inlineStr">
         <is>
           <t>PTSD3_baseline_n</t>
@@ -34004,8 +35768,13 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O551" t="inlineStr"/>
     </row>
     <row r="552">
+      <c r="A552" t="inlineStr"/>
+      <c r="B552" t="inlineStr"/>
+      <c r="C552" t="inlineStr"/>
+      <c r="D552" t="inlineStr"/>
       <c r="E552" t="inlineStr">
         <is>
           <t>PTSD3_baseline_mean</t>
@@ -34063,11 +35832,14 @@
       </c>
     </row>
     <row r="553">
+      <c r="A553" t="inlineStr"/>
+      <c r="B553" t="inlineStr"/>
       <c r="C553" t="inlineStr">
         <is>
           <t>baseline</t>
         </is>
       </c>
+      <c r="D553" t="inlineStr"/>
       <c r="E553" t="inlineStr">
         <is>
           <t>PTSD3_baseline_mean</t>
@@ -34125,6 +35897,10 @@
       </c>
     </row>
     <row r="554">
+      <c r="A554" t="inlineStr"/>
+      <c r="B554" t="inlineStr"/>
+      <c r="C554" t="inlineStr"/>
+      <c r="D554" t="inlineStr"/>
       <c r="E554" t="inlineStr">
         <is>
           <t>PTSD3_baseline_mean</t>
@@ -34175,8 +35951,13 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O554" t="inlineStr"/>
     </row>
     <row r="555">
+      <c r="A555" t="inlineStr"/>
+      <c r="B555" t="inlineStr"/>
+      <c r="C555" t="inlineStr"/>
+      <c r="D555" t="inlineStr"/>
       <c r="E555" t="inlineStr">
         <is>
           <t>PTSD3_baseline_sd</t>
@@ -34234,11 +36015,14 @@
       </c>
     </row>
     <row r="556">
+      <c r="A556" t="inlineStr"/>
+      <c r="B556" t="inlineStr"/>
       <c r="C556" t="inlineStr">
         <is>
           <t>baseline</t>
         </is>
       </c>
+      <c r="D556" t="inlineStr"/>
       <c r="E556" t="inlineStr">
         <is>
           <t>PTSD3_baseline_sd</t>
@@ -34296,6 +36080,10 @@
       </c>
     </row>
     <row r="557">
+      <c r="A557" t="inlineStr"/>
+      <c r="B557" t="inlineStr"/>
+      <c r="C557" t="inlineStr"/>
+      <c r="D557" t="inlineStr"/>
       <c r="E557" t="inlineStr">
         <is>
           <t>PTSD3_baseline_sd</t>
@@ -34346,6 +36134,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -34353,6 +36142,9 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B558" t="inlineStr"/>
+      <c r="C558" t="inlineStr"/>
+      <c r="D558" t="inlineStr"/>
       <c r="E558" t="inlineStr">
         <is>
           <t>treatment</t>
@@ -34403,6 +36195,7 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -34410,6 +36203,9 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B559" t="inlineStr"/>
+      <c r="C559" t="inlineStr"/>
+      <c r="D559" t="inlineStr"/>
       <c r="E559" t="inlineStr">
         <is>
           <t>arm</t>
@@ -34460,8 +36256,15 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O559" t="inlineStr"/>
     </row>
     <row r="560">
+      <c r="A560" t="inlineStr"/>
+      <c r="B560" t="inlineStr"/>
+      <c r="C560" t="inlineStr"/>
+      <c r="D560" t="inlineStr"/>
+      <c r="E560" t="inlineStr"/>
+      <c r="F560" t="inlineStr"/>
       <c r="G560" t="inlineStr">
         <is>
           <t>GMHO:0000122</t>
@@ -34502,8 +36305,15 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O560" t="inlineStr"/>
     </row>
     <row r="561">
+      <c r="A561" t="inlineStr"/>
+      <c r="B561" t="inlineStr"/>
+      <c r="C561" t="inlineStr"/>
+      <c r="D561" t="inlineStr"/>
+      <c r="E561" t="inlineStr"/>
+      <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr">
         <is>
           <t>GMHO:0000123</t>
@@ -34534,8 +36344,15 @@
           <t>structural</t>
         </is>
       </c>
+      <c r="M561" t="inlineStr"/>
+      <c r="N561" t="inlineStr"/>
+      <c r="O561" t="inlineStr"/>
     </row>
     <row r="562">
+      <c r="A562" t="inlineStr"/>
+      <c r="B562" t="inlineStr"/>
+      <c r="C562" t="inlineStr"/>
+      <c r="D562" t="inlineStr"/>
       <c r="E562" t="inlineStr">
         <is>
           <t>Exercise_type</t>
@@ -34586,8 +36403,13 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O562" t="inlineStr"/>
     </row>
     <row r="563">
+      <c r="A563" t="inlineStr"/>
+      <c r="B563" t="inlineStr"/>
+      <c r="C563" t="inlineStr"/>
+      <c r="D563" t="inlineStr"/>
       <c r="E563" t="inlineStr">
         <is>
           <t>dropout_any_n</t>
@@ -34638,13 +36460,19 @@
           <t>No Combo</t>
         </is>
       </c>
+      <c r="O563" t="inlineStr"/>
     </row>
     <row r="564">
+      <c r="A564" t="inlineStr"/>
+      <c r="B564" t="inlineStr"/>
       <c r="C564" t="inlineStr">
         <is>
           <t>sex</t>
         </is>
       </c>
+      <c r="D564" t="inlineStr"/>
+      <c r="E564" t="inlineStr"/>
+      <c r="F564" t="inlineStr"/>
       <c r="G564" t="inlineStr">
         <is>
           <t>BCIO:015249</t>
@@ -34675,13 +36503,21 @@
           <t>structural</t>
         </is>
       </c>
+      <c r="M564" t="inlineStr"/>
+      <c r="N564" t="inlineStr"/>
+      <c r="O564" t="inlineStr"/>
     </row>
     <row r="565">
+      <c r="A565" t="inlineStr"/>
+      <c r="B565" t="inlineStr"/>
       <c r="C565" t="inlineStr">
         <is>
           <t>age</t>
         </is>
       </c>
+      <c r="D565" t="inlineStr"/>
+      <c r="E565" t="inlineStr"/>
+      <c r="F565" t="inlineStr"/>
       <c r="G565" t="inlineStr">
         <is>
           <t>BCIO:015415</t>
@@ -34712,8 +36548,17 @@
           <t>structural</t>
         </is>
       </c>
+      <c r="M565" t="inlineStr"/>
+      <c r="N565" t="inlineStr"/>
+      <c r="O565" t="inlineStr"/>
     </row>
     <row r="566">
+      <c r="A566" t="inlineStr"/>
+      <c r="B566" t="inlineStr"/>
+      <c r="C566" t="inlineStr"/>
+      <c r="D566" t="inlineStr"/>
+      <c r="E566" t="inlineStr"/>
+      <c r="F566" t="inlineStr"/>
       <c r="G566" t="inlineStr">
         <is>
           <t>GMHO:0000087</t>
@@ -34744,13 +36589,21 @@
           <t>structural</t>
         </is>
       </c>
+      <c r="M566" t="inlineStr"/>
+      <c r="N566" t="inlineStr"/>
+      <c r="O566" t="inlineStr"/>
     </row>
     <row r="567">
+      <c r="A567" t="inlineStr"/>
+      <c r="B567" t="inlineStr"/>
       <c r="C567" t="inlineStr">
         <is>
           <t>gender</t>
         </is>
       </c>
+      <c r="D567" t="inlineStr"/>
+      <c r="E567" t="inlineStr"/>
+      <c r="F567" t="inlineStr"/>
       <c r="G567" t="inlineStr">
         <is>
           <t>BCIO:015360</t>
@@ -34781,13 +36634,21 @@
           <t>structural</t>
         </is>
       </c>
+      <c r="M567" t="inlineStr"/>
+      <c r="N567" t="inlineStr"/>
+      <c r="O567" t="inlineStr"/>
     </row>
     <row r="568">
+      <c r="A568" t="inlineStr"/>
+      <c r="B568" t="inlineStr"/>
       <c r="C568" t="inlineStr">
         <is>
           <t>gender</t>
         </is>
       </c>
+      <c r="D568" t="inlineStr"/>
+      <c r="E568" t="inlineStr"/>
+      <c r="F568" t="inlineStr"/>
       <c r="G568" t="inlineStr">
         <is>
           <t>BCIO:015330</t>
@@ -34818,6 +36679,9 @@
           <t>structural</t>
         </is>
       </c>
+      <c r="M568" t="inlineStr"/>
+      <c r="N568" t="inlineStr"/>
+      <c r="O568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -34825,11 +36689,13 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B569" t="inlineStr"/>
       <c r="C569" t="inlineStr">
         <is>
           <t>(gender)</t>
         </is>
       </c>
+      <c r="D569" t="inlineStr"/>
       <c r="E569" t="inlineStr">
         <is>
           <t>female_n</t>
@@ -34870,6 +36736,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="M569" t="inlineStr"/>
+      <c r="N569" t="inlineStr"/>
+      <c r="O569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -34877,11 +36746,13 @@
           <t>LSR3_taar1_H/data/data_2024-01-22_LSR3_H.xlsx</t>
         </is>
       </c>
+      <c r="B570" t="inlineStr"/>
       <c r="C570" t="inlineStr">
         <is>
           <t>(gender)</t>
         </is>
       </c>
+      <c r="D570" t="inlineStr"/>
       <c r="E570" t="inlineStr">
         <is>
           <t>female_n</t>
@@ -34922,13 +36793,19 @@
           <t>3</t>
         </is>
       </c>
+      <c r="M570" t="inlineStr"/>
+      <c r="N570" t="inlineStr"/>
+      <c r="O570" t="inlineStr"/>
     </row>
     <row r="571">
+      <c r="A571" t="inlineStr"/>
+      <c r="B571" t="inlineStr"/>
       <c r="C571" t="inlineStr">
         <is>
           <t>(gender)</t>
         </is>
       </c>
+      <c r="D571" t="inlineStr"/>
       <c r="E571" t="inlineStr">
         <is>
           <t>female_n</t>
@@ -34969,6 +36846,9 @@
           <t>2</t>
         </is>
       </c>
+      <c r="M571" t="inlineStr"/>
+      <c r="N571" t="inlineStr"/>
+      <c r="O571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -34976,6 +36856,7 @@
           <t>LSR1_anhedonia_H/data/human/LSR1_for_ontology.csv</t>
         </is>
       </c>
+      <c r="B572" t="inlineStr"/>
       <c r="C572" t="inlineStr">
         <is>
           <t>(gender)</t>
@@ -35026,6 +36907,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="M572" t="inlineStr"/>
+      <c r="N572" t="inlineStr"/>
+      <c r="O572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -35043,6 +36927,7 @@
           <t>unit</t>
         </is>
       </c>
+      <c r="D573" t="inlineStr"/>
       <c r="E573" t="inlineStr">
         <is>
           <t>weight_scale_name</t>
@@ -35083,13 +36968,21 @@
           <t>3</t>
         </is>
       </c>
+      <c r="M573" t="inlineStr"/>
+      <c r="N573" t="inlineStr"/>
+      <c r="O573" t="inlineStr"/>
     </row>
     <row r="574">
+      <c r="A574" t="inlineStr"/>
+      <c r="B574" t="inlineStr"/>
       <c r="C574" t="inlineStr">
         <is>
           <t>Population</t>
         </is>
       </c>
+      <c r="D574" t="inlineStr"/>
+      <c r="E574" t="inlineStr"/>
+      <c r="F574" t="inlineStr"/>
       <c r="G574" t="inlineStr">
         <is>
           <t>BCIO:015095</t>
@@ -35120,13 +37013,21 @@
           <t>structural</t>
         </is>
       </c>
+      <c r="M574" t="inlineStr"/>
+      <c r="N574" t="inlineStr"/>
+      <c r="O574" t="inlineStr"/>
     </row>
     <row r="575">
+      <c r="A575" t="inlineStr"/>
+      <c r="B575" t="inlineStr"/>
       <c r="C575" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
+      <c r="D575" t="inlineStr"/>
+      <c r="E575" t="inlineStr"/>
+      <c r="F575" t="inlineStr"/>
       <c r="G575" t="inlineStr">
         <is>
           <t>GMHO:0000248</t>
@@ -35157,13 +37058,21 @@
           <t>structural</t>
         </is>
       </c>
+      <c r="M575" t="inlineStr"/>
+      <c r="N575" t="inlineStr"/>
+      <c r="O575" t="inlineStr"/>
     </row>
     <row r="576">
+      <c r="A576" t="inlineStr"/>
+      <c r="B576" t="inlineStr"/>
       <c r="C576" t="inlineStr">
         <is>
           <t>Research study</t>
         </is>
       </c>
+      <c r="D576" t="inlineStr"/>
+      <c r="E576" t="inlineStr"/>
+      <c r="F576" t="inlineStr"/>
       <c r="G576" t="inlineStr">
         <is>
           <t>GMHO:0000268</t>
@@ -35194,13 +37103,21 @@
           <t>structural</t>
         </is>
       </c>
+      <c r="M576" t="inlineStr"/>
+      <c r="N576" t="inlineStr"/>
+      <c r="O576" t="inlineStr"/>
     </row>
     <row r="577">
+      <c r="A577" t="inlineStr"/>
+      <c r="B577" t="inlineStr"/>
       <c r="C577" t="inlineStr">
         <is>
           <t>physical measures</t>
         </is>
       </c>
+      <c r="D577" t="inlineStr"/>
+      <c r="E577" t="inlineStr"/>
+      <c r="F577" t="inlineStr"/>
       <c r="G577" t="inlineStr">
         <is>
           <t>ERO:0001292</t>
@@ -35221,11 +37138,15 @@
           <t>organismal assay</t>
         </is>
       </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="inlineStr">
         <is>
           <t>structural</t>
         </is>
       </c>
+      <c r="M577" t="inlineStr"/>
+      <c r="N577" t="inlineStr"/>
+      <c r="O577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -35238,6 +37159,8 @@
           <t>https://doi.org/10.5281/zenodo.10890206</t>
         </is>
       </c>
+      <c r="C578" t="inlineStr"/>
+      <c r="D578" t="inlineStr"/>
       <c r="E578" t="inlineStr">
         <is>
           <t>prolactin_scale_name</t>
@@ -35278,6 +37201,9 @@
           <t>3</t>
         </is>
       </c>
+      <c r="M578" t="inlineStr"/>
+      <c r="N578" t="inlineStr"/>
+      <c r="O578" t="inlineStr"/>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr"/>
